--- a/KPMG/Benchmark Appraisal/PIID/GOV.xlsx
+++ b/KPMG/Benchmark Appraisal/PIID/GOV.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>GOV</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Organisation processes as define in QMS</t>
   </si>
   <si>
-    <t>S:</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Level 2</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>ORG_PQA SM review</t>
   </si>
   <si>
-    <t>ORG_Audit report sent mail</t>
-  </si>
-  <si>
     <t>Level 3</t>
   </si>
   <si>
@@ -167,209 +158,22 @@
     <t>Doc</t>
   </si>
   <si>
-    <t>s: policy available on SVN</t>
-  </si>
-  <si>
-    <t>s: QMS 3.1  available on SVN</t>
-  </si>
-  <si>
-    <t>s: Business goals are defined in BOTOPO</t>
-  </si>
-  <si>
-    <t>s: team guideline available on SVN</t>
-  </si>
-  <si>
-    <t>s: SM review the project after every milestone</t>
-  </si>
-  <si>
-    <t>s: SM review metrics report of every project</t>
-  </si>
-  <si>
-    <t>s: mbr review by SM</t>
-  </si>
-  <si>
-    <t>I: Actionable feedback and appropriate corrective actions should be indicated by the SM.</t>
-  </si>
-  <si>
-    <t>s: SM review the audit report</t>
-  </si>
-  <si>
-    <t>S: SM review the PEG activities</t>
-  </si>
-  <si>
-    <t>Aff</t>
-  </si>
-  <si>
-    <t>PQA affirmed that SM has reviewed the audit report</t>
-  </si>
-  <si>
-    <t>PEG affirmed that MBR has been reviewed with SM</t>
-  </si>
-  <si>
-    <t>PM1 affirmed that MBR has been review by the SM</t>
-  </si>
-  <si>
-    <t>PM2 affirmed that MBR has been review by the SM</t>
-  </si>
-  <si>
-    <t>PEG affirmed that  MBR has been discussed with SM</t>
-  </si>
-  <si>
-    <t>PQA affirmed that  Goals which are taken for audit activity has been review by the SM</t>
-  </si>
-  <si>
-    <t>PEG affirmed that SM has discussed policy with him and PEG prepare process as per organization objectives</t>
-  </si>
-  <si>
-    <t>PQA affirmed that audit report communicate and review with SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM affirmed that in kickoff meeting he communicate keys objectives and requirement to team </t>
-  </si>
-  <si>
-    <t>PQA affirmed that he plan his activities as per BOTOPO</t>
-  </si>
-  <si>
-    <t>PM1 affirmed that in his project Measurement and Analysis done as per BOTOPO</t>
-  </si>
-  <si>
-    <t>PM2 affirmed that in his project Measurement and Analysis done as per BOTOPO</t>
-  </si>
-  <si>
-    <t>PM3 affirmed that in his project Measurement and Analysis done as per BOTOPO</t>
-  </si>
-  <si>
-    <t>P43 affirmed that in his project Measurement and Analysis done as per BOTOPO</t>
-  </si>
-  <si>
-    <t>SM affirmed that he has provided Business goals to all team members</t>
-  </si>
-  <si>
-    <t>PM1 affirmed that SM has reviewed the audit report of the project</t>
-  </si>
-  <si>
-    <t>PM2 affirmed that SM has reviewed the audit report of the project</t>
-  </si>
-  <si>
-    <t>PM3 affirmed that SM has reviewed the audit report of the project</t>
-  </si>
-  <si>
-    <t>PM4 affirmed that SM has reviewed the audit report of the project</t>
-  </si>
-  <si>
     <t xml:space="preserve">Organization level projects performances </t>
-  </si>
-  <si>
-    <t>PQA affirmed that SM  quarterly reviewed his activities</t>
   </si>
   <si>
     <t>PQA reviews ensure in-line performance for PQA activities.</t>
   </si>
   <si>
-    <t>SM affirmed that he review the Audit report of PEG,PPQA and all projects</t>
-  </si>
-  <si>
-    <t>PM3 affirmed that MBR has been review by the SM</t>
-  </si>
-  <si>
-    <t>PM4 affirmed that project plan has been approved by SM</t>
-  </si>
-  <si>
-    <t>PEG affirmed that if any training is required they communicate to SM</t>
-  </si>
-  <si>
-    <t>PQA affirmed that if any training is required they communicate to SM</t>
-  </si>
-  <si>
-    <t>PM1 affirmed that if any training is required they communicate to SM</t>
-  </si>
-  <si>
-    <t>PM2 affirmed that if any training is required they communicate to SM</t>
-  </si>
-  <si>
-    <t>PM3 affirmed that if any training is required they communicate to SM</t>
-  </si>
-  <si>
     <t>Development policy for development projects in organization.</t>
-  </si>
-  <si>
-    <t>PEG affirmed that business objectively has been discussed with SM</t>
-  </si>
-  <si>
-    <t>s: Training data available on SharePoint</t>
-  </si>
-  <si>
-    <t>PEG affirmed that SM has reviewed  the PEG activities</t>
   </si>
   <si>
     <t>Audit report is sent to PEG and sr. management on monthly basis to provide insight view on process performance.</t>
   </si>
   <si>
-    <t>SM affirmed that he review the MBR report</t>
-  </si>
-  <si>
-    <t>I: competency maps should be maintained for increased effectiveness of alignment.</t>
-  </si>
-  <si>
-    <t>SM affirmed that if any training is required then team give him the I/P and then he communicate to OT function
-also he periodically required the OT function and MBR report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM1 affirmed that during kickoff SM has communicate about   objectives and requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM2 affirmed that during kickoff SM has communicate about   objectives and requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM3 affirmed that during kickoff SM has communicate about objectives and requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM4 affirmed that during kickoff SM has communicate about   objectives and requirement </t>
-  </si>
-  <si>
     <t>Audit report review with SM</t>
   </si>
   <si>
-    <t xml:space="preserve">PM1 affirmed that SM has reviewed the project at the end of the Phase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM2 affirmed that SM has reviewed the project at the end of the Phase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM3 affirmed that SM has reviewed the project at the end of the Phase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM4 affirmed that SM has reviewed the project at the end of the Phase </t>
-  </si>
-  <si>
-    <t>SM affirmed that he has reviewed the project at the end of each phase</t>
-  </si>
-  <si>
-    <t>W: Review comments effectiveness.</t>
-  </si>
-  <si>
-    <t>I: A pool of experts for review and audit.</t>
-  </si>
-  <si>
-    <t>I: measures upstream and downstream to be aligned.</t>
-  </si>
-  <si>
-    <t>I: Success stories to inspire and replicate.</t>
-  </si>
-  <si>
-    <t>I: Tighten goal limits, periodically revise business goals</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
     <t>ORG_QMS</t>
-  </si>
-  <si>
-    <t>Disccussion with SM during SM review regarding Business objectives goals</t>
   </si>
   <si>
     <t>ORG_PEG_MINMET</t>
@@ -406,6 +210,24 @@
   </si>
   <si>
     <t>During milestone review senior management concerns about what skills required to do this project and check status : Project planning point.</t>
+  </si>
+  <si>
+    <t>Disccussion with SM during SM review regarding Business objectives goal Line Rejection.</t>
+  </si>
+  <si>
+    <t>Disccussion with SM during SM review regarding Business objectives goal Schedule Variance.</t>
+  </si>
+  <si>
+    <t>ORG_PEG_MINMET_C32</t>
+  </si>
+  <si>
+    <t>ORG_PEG_MINMET_C19_C36</t>
+  </si>
+  <si>
+    <t>Disccussion with SM during SM review regarding stackholder involvement.</t>
+  </si>
+  <si>
+    <t>MBR Review by senior management. (C32), regarding schedule variance, Senior management asked to project managers.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +489,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -834,25 +656,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,6 +669,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,14 +686,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -892,7 +717,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -910,7 +735,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1340,7 +1200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1355,10 +1215,10 @@
   <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1373,25 +1233,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1438,13 +1298,13 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1452,24 +1312,20 @@
         <v>OK</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="8" t="str">
         <f t="shared" ref="I4" si="0">IF(MID(H4,2,1)=":",LEFT(H4,1),"-")</f>
-        <v>s</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="7" t="str">
         <f>IF(COUNTIFS($E4,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v>X</v>
@@ -1482,41 +1338,35 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="69"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D69" si="2">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I69" si="3">IF(MID(H5,2,1)=":",LEFT(H5,1),"-")</f>
-        <v>s</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="7" t="str">
         <f t="shared" ref="K5:M69" si="4">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v>X</v>
@@ -1532,32 +1382,26 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="69"/>
-    </row>
-    <row r="6" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1573,32 +1417,26 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="69"/>
-    </row>
-    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="59"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="56"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1614,32 +1452,26 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="69"/>
-    </row>
-    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="59"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="56"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1655,32 +1487,26 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="69"/>
-    </row>
-    <row r="9" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="59"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="56"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1696,32 +1522,26 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="69"/>
-    </row>
-    <row r="10" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="59"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="56"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1737,32 +1557,26 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="69"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1778,32 +1592,26 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="69"/>
-    </row>
-    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="59"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="56"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1819,13 +1627,13 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="69"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1854,13 +1662,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="69"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1889,13 +1697,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="69"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1924,13 +1732,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="69"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1959,13 +1767,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="69"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1994,13 +1802,13 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="69"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2029,42 +1837,38 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="69"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="62">
+      <c r="A19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="57">
         <v>2.1</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>20</v>
+      <c r="C19" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J19" s="8"/>
       <c r="K19" s="7" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
@@ -2077,39 +1881,35 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="69"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J20" s="8"/>
       <c r="K20" s="7" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
@@ -2125,102 +1925,99 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="69"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Check</v>
+        <v>OK</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="69"/>
-    </row>
-    <row r="22" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="61"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="56"/>
+    </row>
+    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>OK</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L22" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M22" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="69"/>
-    </row>
-    <row r="23" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="61"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="56"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2236,32 +2033,26 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="69"/>
-    </row>
-    <row r="24" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="61"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="56"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J24" s="8"/>
       <c r="K24" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2277,32 +2068,26 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="69"/>
-    </row>
-    <row r="25" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="61"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="56"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="4"/>
       <c r="I25" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J25" s="8"/>
       <c r="K25" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2318,31 +2103,25 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="69"/>
-    </row>
-    <row r="26" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="61"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="56"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J26" s="8"/>
       <c r="K26" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2358,32 +2137,26 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="69"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="56"/>
     </row>
     <row r="27" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J27" s="8"/>
       <c r="K27" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2399,32 +2172,26 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="69"/>
-    </row>
-    <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="61"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="56"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J28" s="8"/>
       <c r="K28" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2440,13 +2207,13 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="69"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2475,13 +2242,13 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="69"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2510,13 +2277,13 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="69"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="56"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2545,13 +2312,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="69"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="61"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2580,13 +2347,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="69"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="61"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2615,13 +2382,13 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="69"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2650,125 +2417,121 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="69"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="56"/>
     </row>
     <row r="35" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="62">
+      <c r="A35" s="56"/>
+      <c r="B35" s="57">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C35" s="61" t="s">
-        <v>25</v>
+      <c r="C35" s="60" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="34"/>
+        <v>OK</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H35" s="32"/>
       <c r="I35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J35" s="8"/>
       <c r="K35" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L35" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M35" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>105</v>
-      </c>
+        <v>X</v>
+      </c>
+      <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="69"/>
-    </row>
-    <row r="36" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="61"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="56"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="34"/>
+        <v>OK</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>84</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H36" s="32"/>
       <c r="I36" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J36" s="8"/>
       <c r="K36" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L36" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M36" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="69"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="56"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>118</v>
+      <c r="E37" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J37" s="8"/>
       <c r="K37" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2781,39 +2544,35 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="69"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="61"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="56"/>
+    </row>
+    <row r="38" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E38" s="71" t="s">
-        <v>119</v>
+      <c r="E38" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J38" s="8"/>
       <c r="K38" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2826,77 +2585,61 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="69"/>
-    </row>
-    <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="61"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="56"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J39" s="8"/>
       <c r="K39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="69"/>
-    </row>
-    <row r="40" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="61"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="56"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="4"/>
       <c r="I40" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J40" s="8"/>
       <c r="K40" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2912,32 +2655,26 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="69"/>
-    </row>
-    <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="61"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="56"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="7"/>
       <c r="I41" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J41" s="8"/>
       <c r="K41" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2953,32 +2690,26 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="69"/>
-    </row>
-    <row r="42" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="61"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="56"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="7"/>
       <c r="I42" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2994,32 +2725,26 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="69"/>
-    </row>
-    <row r="43" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="61"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="56"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J43" s="8"/>
       <c r="K43" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3035,32 +2760,26 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="69"/>
-    </row>
-    <row r="44" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="61"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="56"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3076,32 +2795,26 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="69"/>
-    </row>
-    <row r="45" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="61"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="56"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3117,32 +2830,26 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="69"/>
-    </row>
-    <row r="46" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="61"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="56"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J46" s="8"/>
       <c r="K46" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3158,13 +2865,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="69"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="56"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="61"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3193,13 +2900,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="69"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="56"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="61"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3228,13 +2935,13 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="69"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="56"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="61"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3263,40 +2970,36 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="69"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="56"/>
     </row>
     <row r="50" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="62">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C50" s="61" t="s">
-        <v>26</v>
+      <c r="C50" s="60" t="s">
+        <v>24</v>
       </c>
       <c r="D50" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3309,41 +3012,35 @@
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
-      <c r="N50" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="69"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="56"/>
     </row>
     <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="61"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H51" s="7"/>
       <c r="I51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J51" s="8"/>
       <c r="K51" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3359,36 +3056,32 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="69"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="56"/>
     </row>
     <row r="52" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="61"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H52" s="7"/>
       <c r="I52" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J52" s="8"/>
       <c r="K52" s="7" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
@@ -3404,32 +3097,26 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="69"/>
-    </row>
-    <row r="53" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="61"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="56"/>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J53" s="8"/>
       <c r="K53" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3445,32 +3132,26 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="69"/>
-    </row>
-    <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="61"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="56"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="7"/>
       <c r="I54" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J54" s="8"/>
       <c r="K54" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3486,32 +3167,26 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="69"/>
-    </row>
-    <row r="55" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="61"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="56"/>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="7"/>
       <c r="I55" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J55" s="8"/>
       <c r="K55" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3527,32 +3202,26 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="69"/>
-    </row>
-    <row r="56" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="61"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="56"/>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="7"/>
       <c r="I56" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J56" s="8"/>
       <c r="K56" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3568,32 +3237,26 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="69"/>
-    </row>
-    <row r="57" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="61"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="56"/>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="7"/>
       <c r="I57" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J57" s="8"/>
       <c r="K57" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3609,32 +3272,26 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="69"/>
-    </row>
-    <row r="58" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="61"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="56"/>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="7"/>
       <c r="I58" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J58" s="8"/>
       <c r="K58" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3650,32 +3307,26 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="69"/>
-    </row>
-    <row r="59" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="61"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="56"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="7"/>
       <c r="I59" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J59" s="8"/>
       <c r="K59" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3691,13 +3342,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="69"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="56"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3726,13 +3377,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="69"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="56"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3761,13 +3412,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="69"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="56"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3796,13 +3447,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="69"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="56"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3831,13 +3482,13 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="69"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="56"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3866,40 +3517,36 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="69"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="56"/>
     </row>
     <row r="65" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
-      <c r="B65" s="62">
+      <c r="A65" s="56"/>
+      <c r="B65" s="57">
         <v>2.4</v>
       </c>
-      <c r="C65" s="61" t="s">
-        <v>29</v>
+      <c r="C65" s="60" t="s">
+        <v>27</v>
       </c>
       <c r="D65" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H65" s="4"/>
       <c r="I65" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>I</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J65" s="8"/>
       <c r="K65" s="7" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
@@ -3912,42 +3559,38 @@
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
-      <c r="N65" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="69"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="56"/>
     </row>
     <row r="66" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E66" s="71" t="s">
-        <v>30</v>
+      <c r="E66" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J66" s="8"/>
       <c r="K66" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L66" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3960,37 +3603,35 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="69"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="56"/>
     </row>
     <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E67" s="71" t="s">
-        <v>31</v>
+      <c r="E67" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J67" s="8"/>
       <c r="K67" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L67" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4003,32 +3644,26 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="69"/>
-    </row>
-    <row r="68" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="61"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="56"/>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="56"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J68" s="8"/>
       <c r="K68" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4044,32 +3679,26 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="69"/>
-    </row>
-    <row r="69" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="61"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="56"/>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="4"/>
       <c r="I69" s="8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J69" s="8"/>
       <c r="K69" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4085,32 +3714,26 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="69"/>
-    </row>
-    <row r="70" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="61"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="56"/>
+    </row>
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="56"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="4" t="str">
         <f t="shared" ref="D70:D133" si="5">IF(LEN(E70)&gt;5,IF(LEN(K70&amp;L70&amp;M70)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="7"/>
       <c r="I70" s="8" t="str">
         <f t="shared" ref="I70:I133" si="6">IF(MID(H70,2,1)=":",LEFT(H70,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J70" s="8"/>
       <c r="K70" s="7" t="str">
         <f t="shared" ref="K70:M133" si="7">IF(COUNTIFS($E70,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v/>
@@ -4126,32 +3749,26 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="69"/>
-    </row>
-    <row r="71" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="61"/>
+      <c r="Q70" s="58"/>
+      <c r="R70" s="56"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="56"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="7"/>
       <c r="I71" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J71" s="8"/>
       <c r="K71" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4167,32 +3784,26 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="69"/>
-    </row>
-    <row r="72" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="61"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="56"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="56"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="7"/>
       <c r="I72" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J72" s="8"/>
       <c r="K72" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4208,32 +3819,26 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="69"/>
-    </row>
-    <row r="73" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="61"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="56"/>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="56"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="7"/>
       <c r="I73" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J73" s="8"/>
       <c r="K73" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4249,32 +3854,26 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="69"/>
-    </row>
-    <row r="74" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="61"/>
+      <c r="Q73" s="58"/>
+      <c r="R73" s="56"/>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="56"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="7"/>
       <c r="I74" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J74" s="8"/>
       <c r="K74" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4290,13 +3889,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="69"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="56"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="61"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4325,13 +3924,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="69"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="56"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="61"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4360,13 +3959,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="69"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="56"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="61"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4395,13 +3994,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="69"/>
+      <c r="Q77" s="58"/>
+      <c r="R77" s="56"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="61"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4430,13 +4029,13 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="69"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="56"/>
     </row>
     <row r="79" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="61"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4465,42 +4064,38 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="64"/>
-      <c r="R79" s="69"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="56"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="62">
+      <c r="A80" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="57">
         <v>3.1</v>
       </c>
-      <c r="C80" s="61" t="s">
-        <v>33</v>
+      <c r="C80" s="60" t="s">
+        <v>30</v>
       </c>
       <c r="D80" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H80" s="7"/>
       <c r="I80" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>S</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J80" s="8"/>
       <c r="K80" s="7" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
@@ -4513,39 +4108,35 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N80" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="62"/>
-      <c r="R80" s="69"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="56"/>
     </row>
     <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="61"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J81" s="8"/>
       <c r="K81" s="7" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
@@ -4561,34 +4152,32 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="63"/>
-      <c r="R81" s="69"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="56"/>
     </row>
     <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="61"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J82" s="8"/>
       <c r="K82" s="7" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
@@ -4604,36 +4193,32 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="63"/>
-      <c r="R82" s="69"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="56"/>
     </row>
     <row r="83" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="61"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="E83" s="71" t="s">
-        <v>30</v>
+      <c r="E83" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H83" s="4"/>
       <c r="I83" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>W</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J83" s="8"/>
       <c r="K83" s="7" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
@@ -4649,34 +4234,26 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="63"/>
-      <c r="R83" s="69"/>
-    </row>
-    <row r="84" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="69"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="61"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="56"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="56"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>I</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J84" s="8"/>
       <c r="K84" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4692,32 +4269,26 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="63"/>
-      <c r="R84" s="69"/>
-    </row>
-    <row r="85" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="61"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="56"/>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="56"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="7"/>
       <c r="I85" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J85" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J85" s="8"/>
       <c r="K85" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4733,32 +4304,26 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="63"/>
-      <c r="R85" s="69"/>
-    </row>
-    <row r="86" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="61"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="56"/>
+    </row>
+    <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="56"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E86" s="12"/>
-      <c r="F86" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="7"/>
       <c r="I86" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J86" s="8"/>
       <c r="K86" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4774,32 +4339,26 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="63"/>
-      <c r="R86" s="69"/>
-    </row>
-    <row r="87" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="61"/>
+      <c r="Q86" s="58"/>
+      <c r="R86" s="56"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="56"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="7"/>
       <c r="I87" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J87" s="8"/>
       <c r="K87" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4815,32 +4374,26 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="63"/>
-      <c r="R87" s="69"/>
-    </row>
-    <row r="88" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="61"/>
+      <c r="Q87" s="58"/>
+      <c r="R87" s="56"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="56"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="7"/>
       <c r="I88" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J88" s="8"/>
       <c r="K88" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4856,32 +4409,26 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="63"/>
-      <c r="R88" s="69"/>
-    </row>
-    <row r="89" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="61"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="56"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="56"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="7"/>
       <c r="I89" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J89" s="8"/>
       <c r="K89" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4897,32 +4444,26 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="69"/>
-    </row>
-    <row r="90" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="61"/>
+      <c r="Q89" s="58"/>
+      <c r="R89" s="56"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="56"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="7"/>
       <c r="I90" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J90" s="8"/>
       <c r="K90" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4938,13 +4479,13 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="69"/>
+      <c r="Q90" s="58"/>
+      <c r="R90" s="56"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="61"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="60"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4973,13 +4514,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="63"/>
-      <c r="R91" s="69"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="56"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="69"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="61"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5008,13 +4549,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="63"/>
-      <c r="R92" s="69"/>
+      <c r="Q92" s="58"/>
+      <c r="R92" s="56"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="61"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5043,13 +4584,13 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="69"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="56"/>
     </row>
     <row r="94" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="61"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5078,40 +4619,36 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="69"/>
-    </row>
-    <row r="95" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="56">
+      <c r="Q94" s="59"/>
+      <c r="R94" s="56"/>
+    </row>
+    <row r="95" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="56"/>
+      <c r="B95" s="67">
         <v>3.2</v>
       </c>
-      <c r="C95" s="59" t="s">
-        <v>34</v>
+      <c r="C95" s="66" t="s">
+        <v>31</v>
       </c>
       <c r="D95" s="13" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="E95" s="71" t="s">
-        <v>35</v>
+      <c r="E95" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H95" s="4"/>
       <c r="I95" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>I</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J95" s="8"/>
       <c r="K95" s="7" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
@@ -5124,41 +4661,35 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N95" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="56"/>
-      <c r="R95" s="60"/>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="70"/>
     </row>
     <row r="96" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="59"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>I</v>
-      </c>
-      <c r="J96" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J96" s="8"/>
       <c r="K96" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5174,34 +4705,26 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="57"/>
-      <c r="R96" s="60"/>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="70"/>
     </row>
     <row r="97" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="59"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="7"/>
       <c r="I97" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>I</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J97" s="8"/>
       <c r="K97" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5217,34 +4740,26 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="57"/>
-      <c r="R97" s="60"/>
-    </row>
-    <row r="98" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="59"/>
+      <c r="Q97" s="68"/>
+      <c r="R97" s="70"/>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="56"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="7"/>
       <c r="I98" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>I</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J98" s="8"/>
       <c r="K98" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5260,32 +4775,26 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="57"/>
-      <c r="R98" s="60"/>
-    </row>
-    <row r="99" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="59"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="70"/>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="66"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="7"/>
       <c r="I99" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J99" s="8"/>
       <c r="K99" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5301,32 +4810,26 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="57"/>
-      <c r="R99" s="60"/>
-    </row>
-    <row r="100" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="69"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="59"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="70"/>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E100" s="6"/>
-      <c r="F100" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="7"/>
       <c r="I100" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J100" s="8"/>
       <c r="K100" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5342,32 +4845,26 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="57"/>
-      <c r="R100" s="60"/>
-    </row>
-    <row r="101" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="59"/>
+      <c r="Q100" s="68"/>
+      <c r="R100" s="70"/>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="56"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="7"/>
       <c r="I101" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J101" s="8"/>
       <c r="K101" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5383,32 +4880,26 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="57"/>
-      <c r="R101" s="60"/>
-    </row>
-    <row r="102" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="59"/>
+      <c r="Q101" s="68"/>
+      <c r="R101" s="70"/>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="56"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="66"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E102" s="6"/>
-      <c r="F102" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="7"/>
       <c r="I102" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J102" s="8"/>
       <c r="K102" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5424,32 +4915,26 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="57"/>
-      <c r="R102" s="60"/>
-    </row>
-    <row r="103" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="59"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="70"/>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="56"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E103" s="6"/>
-      <c r="F103" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="7"/>
       <c r="I103" s="8" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J103" s="8"/>
       <c r="K103" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5465,13 +4950,13 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="57"/>
-      <c r="R103" s="60"/>
+      <c r="Q103" s="68"/>
+      <c r="R103" s="70"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="59"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5500,13 +4985,13 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="57"/>
-      <c r="R104" s="60"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="70"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="59"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="66"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5535,13 +5020,13 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="57"/>
-      <c r="R105" s="60"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="70"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="59"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="66"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5570,13 +5055,13 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="57"/>
-      <c r="R106" s="60"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="70"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="69"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="59"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5605,13 +5090,13 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="57"/>
-      <c r="R107" s="60"/>
+      <c r="Q107" s="68"/>
+      <c r="R107" s="70"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="69"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="59"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="66"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5640,13 +5125,13 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="57"/>
-      <c r="R108" s="60"/>
+      <c r="Q108" s="68"/>
+      <c r="R108" s="70"/>
     </row>
     <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="59"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="66"/>
       <c r="D109" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5675,13 +5160,13 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="58"/>
-      <c r="R109" s="60"/>
+      <c r="Q109" s="69"/>
+      <c r="R109" s="70"/>
     </row>
     <row r="110" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="61"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5710,13 +5195,13 @@
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="56"/>
-      <c r="R110" s="60"/>
+      <c r="Q110" s="67"/>
+      <c r="R110" s="70"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="61"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="60"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5745,13 +5230,13 @@
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="57"/>
-      <c r="R111" s="60"/>
+      <c r="Q111" s="68"/>
+      <c r="R111" s="70"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="61"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="60"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5780,13 +5265,13 @@
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="57"/>
-      <c r="R112" s="60"/>
+      <c r="Q112" s="68"/>
+      <c r="R112" s="70"/>
     </row>
     <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="61"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5815,13 +5300,13 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="57"/>
-      <c r="R113" s="60"/>
+      <c r="Q113" s="68"/>
+      <c r="R113" s="70"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="61"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="60"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5850,13 +5335,13 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="57"/>
-      <c r="R114" s="60"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="70"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="61"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5885,13 +5370,13 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="57"/>
-      <c r="R115" s="60"/>
+      <c r="Q115" s="68"/>
+      <c r="R115" s="70"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="61"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="60"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5920,13 +5405,13 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="57"/>
-      <c r="R116" s="60"/>
+      <c r="Q116" s="68"/>
+      <c r="R116" s="70"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="61"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="60"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5955,13 +5440,13 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="57"/>
-      <c r="R117" s="60"/>
+      <c r="Q117" s="68"/>
+      <c r="R117" s="70"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="61"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5990,13 +5475,13 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="57"/>
-      <c r="R118" s="60"/>
+      <c r="Q118" s="68"/>
+      <c r="R118" s="70"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="61"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="60"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6025,13 +5510,13 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="57"/>
-      <c r="R119" s="60"/>
+      <c r="Q119" s="68"/>
+      <c r="R119" s="70"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="61"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="60"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6060,13 +5545,13 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="57"/>
-      <c r="R120" s="60"/>
+      <c r="Q120" s="68"/>
+      <c r="R120" s="70"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="61"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="60"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6095,13 +5580,13 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="57"/>
-      <c r="R121" s="60"/>
+      <c r="Q121" s="68"/>
+      <c r="R121" s="70"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="61"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="60"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6130,13 +5615,13 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="57"/>
-      <c r="R122" s="60"/>
+      <c r="Q122" s="68"/>
+      <c r="R122" s="70"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="61"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="60"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6165,13 +5650,13 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="57"/>
-      <c r="R123" s="60"/>
+      <c r="Q123" s="68"/>
+      <c r="R123" s="70"/>
     </row>
     <row r="124" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="61"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="60"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6199,13 +5684,13 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="58"/>
-      <c r="R124" s="60"/>
+      <c r="Q124" s="69"/>
+      <c r="R124" s="70"/>
     </row>
     <row r="125" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="59"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6234,13 +5719,13 @@
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="56"/>
-      <c r="R125" s="60"/>
+      <c r="Q125" s="67"/>
+      <c r="R125" s="70"/>
     </row>
     <row r="126" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="59"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="66"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6269,13 +5754,13 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="57"/>
-      <c r="R126" s="60"/>
+      <c r="Q126" s="68"/>
+      <c r="R126" s="70"/>
     </row>
     <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="59"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6304,13 +5789,13 @@
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="57"/>
-      <c r="R127" s="60"/>
+      <c r="Q127" s="68"/>
+      <c r="R127" s="70"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="59"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="66"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6339,13 +5824,13 @@
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="57"/>
-      <c r="R128" s="60"/>
+      <c r="Q128" s="68"/>
+      <c r="R128" s="70"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="59"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="66"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6374,13 +5859,13 @@
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="57"/>
-      <c r="R129" s="60"/>
+      <c r="Q129" s="68"/>
+      <c r="R129" s="70"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="59"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="66"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6409,13 +5894,13 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="57"/>
-      <c r="R130" s="60"/>
+      <c r="Q130" s="68"/>
+      <c r="R130" s="70"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="59"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="66"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6444,13 +5929,13 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="57"/>
-      <c r="R131" s="60"/>
+      <c r="Q131" s="68"/>
+      <c r="R131" s="70"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="59"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="66"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6478,13 +5963,13 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="57"/>
-      <c r="R132" s="60"/>
+      <c r="Q132" s="68"/>
+      <c r="R132" s="70"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="59"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="66"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6513,13 +5998,13 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="57"/>
-      <c r="R133" s="60"/>
+      <c r="Q133" s="68"/>
+      <c r="R133" s="70"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="59"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="66"/>
       <c r="D134" s="4" t="str">
         <f t="shared" ref="D134:D197" si="8">IF(LEN(E134)&gt;5,IF(LEN(K134&amp;L134&amp;M134)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6547,13 +6032,13 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="57"/>
-      <c r="R134" s="60"/>
+      <c r="Q134" s="68"/>
+      <c r="R134" s="70"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="59"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="66"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6582,13 +6067,13 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="57"/>
-      <c r="R135" s="60"/>
+      <c r="Q135" s="68"/>
+      <c r="R135" s="70"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="59"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="66"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6617,13 +6102,13 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="57"/>
-      <c r="R136" s="60"/>
+      <c r="Q136" s="68"/>
+      <c r="R136" s="70"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="59"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="66"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6652,13 +6137,13 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="57"/>
-      <c r="R137" s="60"/>
+      <c r="Q137" s="68"/>
+      <c r="R137" s="70"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="59"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="66"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6687,13 +6172,13 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="57"/>
-      <c r="R138" s="60"/>
+      <c r="Q138" s="68"/>
+      <c r="R138" s="70"/>
     </row>
     <row r="139" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="59"/>
+      <c r="B139" s="69"/>
+      <c r="C139" s="66"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6722,13 +6207,13 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="58"/>
-      <c r="R139" s="60"/>
+      <c r="Q139" s="69"/>
+      <c r="R139" s="70"/>
     </row>
     <row r="140" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="59"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="66"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6756,13 +6241,13 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="56"/>
-      <c r="R140" s="60"/>
+      <c r="Q140" s="67"/>
+      <c r="R140" s="70"/>
     </row>
     <row r="141" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="59"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="66"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6791,13 +6276,13 @@
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="57"/>
-      <c r="R141" s="60"/>
+      <c r="Q141" s="68"/>
+      <c r="R141" s="70"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="59"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="66"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6826,13 +6311,13 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="57"/>
-      <c r="R142" s="60"/>
+      <c r="Q142" s="68"/>
+      <c r="R142" s="70"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="59"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="66"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6861,13 +6346,13 @@
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="57"/>
-      <c r="R143" s="60"/>
+      <c r="Q143" s="68"/>
+      <c r="R143" s="70"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="59"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="66"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6896,13 +6381,13 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="57"/>
-      <c r="R144" s="60"/>
+      <c r="Q144" s="68"/>
+      <c r="R144" s="70"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="59"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="66"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6931,13 +6416,13 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="57"/>
-      <c r="R145" s="60"/>
+      <c r="Q145" s="68"/>
+      <c r="R145" s="70"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="59"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="66"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6966,13 +6451,13 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="57"/>
-      <c r="R146" s="60"/>
+      <c r="Q146" s="68"/>
+      <c r="R146" s="70"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="59"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="66"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7001,13 +6486,13 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="57"/>
-      <c r="R147" s="60"/>
+      <c r="Q147" s="68"/>
+      <c r="R147" s="70"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="59"/>
+      <c r="B148" s="68"/>
+      <c r="C148" s="66"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7036,13 +6521,13 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="57"/>
-      <c r="R148" s="60"/>
+      <c r="Q148" s="68"/>
+      <c r="R148" s="70"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="59"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="66"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7071,13 +6556,13 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="57"/>
-      <c r="R149" s="60"/>
+      <c r="Q149" s="68"/>
+      <c r="R149" s="70"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="59"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7106,13 +6591,13 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="57"/>
-      <c r="R150" s="60"/>
+      <c r="Q150" s="68"/>
+      <c r="R150" s="70"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="59"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="66"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7141,13 +6626,13 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="57"/>
-      <c r="R151" s="60"/>
+      <c r="Q151" s="68"/>
+      <c r="R151" s="70"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="59"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="66"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7176,13 +6661,13 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="57"/>
-      <c r="R152" s="60"/>
+      <c r="Q152" s="68"/>
+      <c r="R152" s="70"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
-      <c r="B153" s="57"/>
-      <c r="C153" s="59"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="66"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7211,13 +6696,13 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="57"/>
-      <c r="R153" s="60"/>
+      <c r="Q153" s="68"/>
+      <c r="R153" s="70"/>
     </row>
     <row r="154" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="59"/>
+      <c r="B154" s="69"/>
+      <c r="C154" s="66"/>
       <c r="D154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7246,13 +6731,13 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="58"/>
-      <c r="R154" s="60"/>
+      <c r="Q154" s="69"/>
+      <c r="R154" s="70"/>
     </row>
     <row r="155" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="56"/>
-      <c r="C155" s="59"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="66"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7281,13 +6766,13 @@
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="56"/>
-      <c r="R155" s="60"/>
+      <c r="Q155" s="67"/>
+      <c r="R155" s="70"/>
     </row>
     <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="59"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="66"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7316,13 +6801,13 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="57"/>
-      <c r="R156" s="60"/>
+      <c r="Q156" s="68"/>
+      <c r="R156" s="70"/>
     </row>
     <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="59"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="66"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7351,13 +6836,13 @@
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="57"/>
-      <c r="R157" s="60"/>
+      <c r="Q157" s="68"/>
+      <c r="R157" s="70"/>
     </row>
     <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="59"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="66"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7386,13 +6871,13 @@
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="57"/>
-      <c r="R158" s="60"/>
+      <c r="Q158" s="68"/>
+      <c r="R158" s="70"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="59"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="66"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7421,13 +6906,13 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="57"/>
-      <c r="R159" s="60"/>
+      <c r="Q159" s="68"/>
+      <c r="R159" s="70"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-      <c r="B160" s="57"/>
-      <c r="C160" s="59"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="66"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7456,13 +6941,13 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="57"/>
-      <c r="R160" s="60"/>
+      <c r="Q160" s="68"/>
+      <c r="R160" s="70"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="59"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="66"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7491,13 +6976,13 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="57"/>
-      <c r="R161" s="60"/>
+      <c r="Q161" s="68"/>
+      <c r="R161" s="70"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="59"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="66"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7526,13 +7011,13 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="57"/>
-      <c r="R162" s="60"/>
+      <c r="Q162" s="68"/>
+      <c r="R162" s="70"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="59"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="66"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7561,13 +7046,13 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="57"/>
-      <c r="R163" s="60"/>
+      <c r="Q163" s="68"/>
+      <c r="R163" s="70"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="59"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="66"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7596,13 +7081,13 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="57"/>
-      <c r="R164" s="60"/>
+      <c r="Q164" s="68"/>
+      <c r="R164" s="70"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="59"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="66"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7631,13 +7116,13 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="57"/>
-      <c r="R165" s="60"/>
+      <c r="Q165" s="68"/>
+      <c r="R165" s="70"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="59"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="66"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7666,13 +7151,13 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="57"/>
-      <c r="R166" s="60"/>
+      <c r="Q166" s="68"/>
+      <c r="R166" s="70"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="59"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="66"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7701,13 +7186,13 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="57"/>
-      <c r="R167" s="60"/>
+      <c r="Q167" s="68"/>
+      <c r="R167" s="70"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="59"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="66"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7736,13 +7221,13 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="57"/>
-      <c r="R168" s="60"/>
+      <c r="Q168" s="68"/>
+      <c r="R168" s="70"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="59"/>
+      <c r="B169" s="69"/>
+      <c r="C169" s="66"/>
       <c r="D169" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7771,13 +7256,13 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="58"/>
-      <c r="R169" s="60"/>
+      <c r="Q169" s="69"/>
+      <c r="R169" s="70"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
-      <c r="B170" s="56"/>
-      <c r="C170" s="59"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="66"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7806,13 +7291,13 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="56"/>
-      <c r="R170" s="60"/>
+      <c r="Q170" s="67"/>
+      <c r="R170" s="70"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="59"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="66"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7841,13 +7326,13 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="57"/>
-      <c r="R171" s="60"/>
+      <c r="Q171" s="68"/>
+      <c r="R171" s="70"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="59"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="66"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7876,13 +7361,13 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="57"/>
-      <c r="R172" s="60"/>
+      <c r="Q172" s="68"/>
+      <c r="R172" s="70"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
-      <c r="B173" s="57"/>
-      <c r="C173" s="59"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="66"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7911,13 +7396,13 @@
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="57"/>
-      <c r="R173" s="60"/>
+      <c r="Q173" s="68"/>
+      <c r="R173" s="70"/>
     </row>
     <row r="174" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="59"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="66"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7946,13 +7431,13 @@
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="57"/>
-      <c r="R174" s="60"/>
+      <c r="Q174" s="68"/>
+      <c r="R174" s="70"/>
     </row>
     <row r="175" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="59"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="66"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7981,13 +7466,13 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="57"/>
-      <c r="R175" s="60"/>
+      <c r="Q175" s="68"/>
+      <c r="R175" s="70"/>
     </row>
     <row r="176" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="59"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="66"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8016,13 +7501,13 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="57"/>
-      <c r="R176" s="60"/>
+      <c r="Q176" s="68"/>
+      <c r="R176" s="70"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="59"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="66"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8051,13 +7536,13 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="57"/>
-      <c r="R177" s="60"/>
+      <c r="Q177" s="68"/>
+      <c r="R177" s="70"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
-      <c r="B178" s="57"/>
-      <c r="C178" s="59"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="66"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8086,13 +7571,13 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="57"/>
-      <c r="R178" s="60"/>
+      <c r="Q178" s="68"/>
+      <c r="R178" s="70"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="59"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="66"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8121,13 +7606,13 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="57"/>
-      <c r="R179" s="60"/>
+      <c r="Q179" s="68"/>
+      <c r="R179" s="70"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
-      <c r="B180" s="57"/>
-      <c r="C180" s="59"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="66"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8156,13 +7641,13 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="57"/>
-      <c r="R180" s="60"/>
+      <c r="Q180" s="68"/>
+      <c r="R180" s="70"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="59"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="66"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8191,13 +7676,13 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="57"/>
-      <c r="R181" s="60"/>
+      <c r="Q181" s="68"/>
+      <c r="R181" s="70"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
-      <c r="B182" s="57"/>
-      <c r="C182" s="59"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="66"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8226,13 +7711,13 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="57"/>
-      <c r="R182" s="60"/>
+      <c r="Q182" s="68"/>
+      <c r="R182" s="70"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
-      <c r="B183" s="57"/>
-      <c r="C183" s="59"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="66"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8261,13 +7746,13 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="57"/>
-      <c r="R183" s="60"/>
+      <c r="Q183" s="68"/>
+      <c r="R183" s="70"/>
     </row>
     <row r="184" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="59"/>
+      <c r="B184" s="69"/>
+      <c r="C184" s="66"/>
       <c r="D184" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8296,13 +7781,13 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="58"/>
-      <c r="R184" s="60"/>
+      <c r="Q184" s="69"/>
+      <c r="R184" s="70"/>
     </row>
     <row r="185" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
-      <c r="B185" s="56"/>
-      <c r="C185" s="59"/>
+      <c r="B185" s="67"/>
+      <c r="C185" s="66"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8331,13 +7816,13 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="56"/>
-      <c r="R185" s="60"/>
+      <c r="Q185" s="67"/>
+      <c r="R185" s="70"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
-      <c r="B186" s="57"/>
-      <c r="C186" s="59"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="66"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8366,13 +7851,13 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="57"/>
-      <c r="R186" s="60"/>
+      <c r="Q186" s="68"/>
+      <c r="R186" s="70"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
-      <c r="B187" s="57"/>
-      <c r="C187" s="59"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="66"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8401,13 +7886,13 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="57"/>
-      <c r="R187" s="60"/>
+      <c r="Q187" s="68"/>
+      <c r="R187" s="70"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
-      <c r="B188" s="57"/>
-      <c r="C188" s="59"/>
+      <c r="B188" s="68"/>
+      <c r="C188" s="66"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8436,13 +7921,13 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="57"/>
-      <c r="R188" s="60"/>
+      <c r="Q188" s="68"/>
+      <c r="R188" s="70"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
-      <c r="B189" s="57"/>
-      <c r="C189" s="59"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="66"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8471,13 +7956,13 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="57"/>
-      <c r="R189" s="60"/>
+      <c r="Q189" s="68"/>
+      <c r="R189" s="70"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
-      <c r="B190" s="57"/>
-      <c r="C190" s="59"/>
+      <c r="B190" s="68"/>
+      <c r="C190" s="66"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8506,13 +7991,13 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="57"/>
-      <c r="R190" s="60"/>
+      <c r="Q190" s="68"/>
+      <c r="R190" s="70"/>
     </row>
     <row r="191" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
-      <c r="B191" s="57"/>
-      <c r="C191" s="59"/>
+      <c r="B191" s="68"/>
+      <c r="C191" s="66"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8541,13 +8026,13 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="57"/>
-      <c r="R191" s="60"/>
+      <c r="Q191" s="68"/>
+      <c r="R191" s="70"/>
     </row>
     <row r="192" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
-      <c r="B192" s="57"/>
-      <c r="C192" s="59"/>
+      <c r="B192" s="68"/>
+      <c r="C192" s="66"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8576,13 +8061,13 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="57"/>
-      <c r="R192" s="60"/>
+      <c r="Q192" s="68"/>
+      <c r="R192" s="70"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
-      <c r="B193" s="57"/>
-      <c r="C193" s="59"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="66"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8611,13 +8096,13 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="57"/>
-      <c r="R193" s="60"/>
+      <c r="Q193" s="68"/>
+      <c r="R193" s="70"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
-      <c r="B194" s="57"/>
-      <c r="C194" s="59"/>
+      <c r="B194" s="68"/>
+      <c r="C194" s="66"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8627,7 +8112,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="7"/>
       <c r="I194" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J194" s="8"/>
       <c r="K194" s="7" t="str">
@@ -8645,13 +8130,13 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="57"/>
-      <c r="R194" s="60"/>
+      <c r="Q194" s="68"/>
+      <c r="R194" s="70"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
-      <c r="B195" s="57"/>
-      <c r="C195" s="59"/>
+      <c r="B195" s="68"/>
+      <c r="C195" s="66"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8680,13 +8165,13 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="57"/>
-      <c r="R195" s="60"/>
+      <c r="Q195" s="68"/>
+      <c r="R195" s="70"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
-      <c r="B196" s="57"/>
-      <c r="C196" s="59"/>
+      <c r="B196" s="68"/>
+      <c r="C196" s="66"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8715,13 +8200,13 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="57"/>
-      <c r="R196" s="60"/>
+      <c r="Q196" s="68"/>
+      <c r="R196" s="70"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
-      <c r="B197" s="57"/>
-      <c r="C197" s="59"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="66"/>
       <c r="D197" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8750,13 +8235,13 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="57"/>
-      <c r="R197" s="60"/>
+      <c r="Q197" s="68"/>
+      <c r="R197" s="70"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
-      <c r="B198" s="57"/>
-      <c r="C198" s="59"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="66"/>
       <c r="D198" s="4" t="str">
         <f t="shared" ref="D198:D261" si="12">IF(LEN(E198)&gt;5,IF(LEN(K198&amp;L198&amp;M198)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8785,13 +8270,13 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="57"/>
-      <c r="R198" s="60"/>
+      <c r="Q198" s="68"/>
+      <c r="R198" s="70"/>
     </row>
     <row r="199" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="59"/>
+      <c r="B199" s="69"/>
+      <c r="C199" s="66"/>
       <c r="D199" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8820,13 +8305,13 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="58"/>
-      <c r="R199" s="60"/>
+      <c r="Q199" s="69"/>
+      <c r="R199" s="70"/>
     </row>
     <row r="200" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
-      <c r="B200" s="56"/>
-      <c r="C200" s="59"/>
+      <c r="B200" s="67"/>
+      <c r="C200" s="66"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8855,13 +8340,13 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="56"/>
-      <c r="R200" s="60"/>
+      <c r="Q200" s="67"/>
+      <c r="R200" s="70"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
-      <c r="B201" s="57"/>
-      <c r="C201" s="59"/>
+      <c r="B201" s="68"/>
+      <c r="C201" s="66"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8890,13 +8375,13 @@
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="57"/>
-      <c r="R201" s="60"/>
+      <c r="Q201" s="68"/>
+      <c r="R201" s="70"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="57"/>
-      <c r="C202" s="59"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="66"/>
       <c r="D202" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8925,13 +8410,13 @@
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="57"/>
-      <c r="R202" s="60"/>
+      <c r="Q202" s="68"/>
+      <c r="R202" s="70"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
-      <c r="B203" s="57"/>
-      <c r="C203" s="59"/>
+      <c r="B203" s="68"/>
+      <c r="C203" s="66"/>
       <c r="D203" s="32" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8960,13 +8445,13 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="57"/>
-      <c r="R203" s="60"/>
+      <c r="Q203" s="68"/>
+      <c r="R203" s="70"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
-      <c r="B204" s="57"/>
-      <c r="C204" s="59"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="66"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8995,13 +8480,13 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="57"/>
-      <c r="R204" s="60"/>
+      <c r="Q204" s="68"/>
+      <c r="R204" s="70"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
-      <c r="B205" s="57"/>
-      <c r="C205" s="59"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="66"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9030,13 +8515,13 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="57"/>
-      <c r="R205" s="60"/>
+      <c r="Q205" s="68"/>
+      <c r="R205" s="70"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
-      <c r="B206" s="57"/>
-      <c r="C206" s="59"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="66"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9065,13 +8550,13 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="57"/>
-      <c r="R206" s="60"/>
+      <c r="Q206" s="68"/>
+      <c r="R206" s="70"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
-      <c r="B207" s="57"/>
-      <c r="C207" s="59"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="66"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9100,13 +8585,13 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="57"/>
-      <c r="R207" s="60"/>
+      <c r="Q207" s="68"/>
+      <c r="R207" s="70"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
-      <c r="B208" s="57"/>
-      <c r="C208" s="59"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="66"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9135,13 +8620,13 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="57"/>
-      <c r="R208" s="60"/>
+      <c r="Q208" s="68"/>
+      <c r="R208" s="70"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
-      <c r="B209" s="57"/>
-      <c r="C209" s="59"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="66"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9170,13 +8655,13 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="57"/>
-      <c r="R209" s="60"/>
+      <c r="Q209" s="68"/>
+      <c r="R209" s="70"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
-      <c r="B210" s="57"/>
-      <c r="C210" s="59"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="66"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9205,13 +8690,13 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="57"/>
-      <c r="R210" s="60"/>
+      <c r="Q210" s="68"/>
+      <c r="R210" s="70"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
-      <c r="B211" s="57"/>
-      <c r="C211" s="59"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="66"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9240,13 +8725,13 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="57"/>
-      <c r="R211" s="60"/>
+      <c r="Q211" s="68"/>
+      <c r="R211" s="70"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
-      <c r="B212" s="57"/>
-      <c r="C212" s="59"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="66"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9275,13 +8760,13 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="57"/>
-      <c r="R212" s="60"/>
+      <c r="Q212" s="68"/>
+      <c r="R212" s="70"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="57"/>
-      <c r="C213" s="59"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="66"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9310,13 +8795,13 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="57"/>
-      <c r="R213" s="60"/>
+      <c r="Q213" s="68"/>
+      <c r="R213" s="70"/>
     </row>
     <row r="214" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
-      <c r="B214" s="58"/>
-      <c r="C214" s="59"/>
+      <c r="B214" s="69"/>
+      <c r="C214" s="66"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9345,13 +8830,13 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="58"/>
-      <c r="R214" s="60"/>
+      <c r="Q214" s="69"/>
+      <c r="R214" s="70"/>
     </row>
     <row r="215" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
-      <c r="B215" s="56"/>
-      <c r="C215" s="59"/>
+      <c r="B215" s="67"/>
+      <c r="C215" s="66"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9380,13 +8865,13 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="56"/>
-      <c r="R215" s="60"/>
+      <c r="Q215" s="67"/>
+      <c r="R215" s="70"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
-      <c r="B216" s="57"/>
-      <c r="C216" s="59"/>
+      <c r="B216" s="68"/>
+      <c r="C216" s="66"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9415,13 +8900,13 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="57"/>
-      <c r="R216" s="60"/>
+      <c r="Q216" s="68"/>
+      <c r="R216" s="70"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
-      <c r="B217" s="57"/>
-      <c r="C217" s="59"/>
+      <c r="B217" s="68"/>
+      <c r="C217" s="66"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9450,13 +8935,13 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="57"/>
-      <c r="R217" s="60"/>
+      <c r="Q217" s="68"/>
+      <c r="R217" s="70"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="57"/>
-      <c r="C218" s="59"/>
+      <c r="B218" s="68"/>
+      <c r="C218" s="66"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9485,13 +8970,13 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="57"/>
-      <c r="R218" s="60"/>
+      <c r="Q218" s="68"/>
+      <c r="R218" s="70"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
-      <c r="B219" s="57"/>
-      <c r="C219" s="59"/>
+      <c r="B219" s="68"/>
+      <c r="C219" s="66"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9520,13 +9005,13 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="57"/>
-      <c r="R219" s="60"/>
+      <c r="Q219" s="68"/>
+      <c r="R219" s="70"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
-      <c r="B220" s="57"/>
-      <c r="C220" s="59"/>
+      <c r="B220" s="68"/>
+      <c r="C220" s="66"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9555,13 +9040,13 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="57"/>
-      <c r="R220" s="60"/>
+      <c r="Q220" s="68"/>
+      <c r="R220" s="70"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="57"/>
-      <c r="C221" s="59"/>
+      <c r="B221" s="68"/>
+      <c r="C221" s="66"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9590,13 +9075,13 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="57"/>
-      <c r="R221" s="60"/>
+      <c r="Q221" s="68"/>
+      <c r="R221" s="70"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
-      <c r="B222" s="57"/>
-      <c r="C222" s="59"/>
+      <c r="B222" s="68"/>
+      <c r="C222" s="66"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9625,13 +9110,13 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="57"/>
-      <c r="R222" s="60"/>
+      <c r="Q222" s="68"/>
+      <c r="R222" s="70"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
-      <c r="B223" s="57"/>
-      <c r="C223" s="59"/>
+      <c r="B223" s="68"/>
+      <c r="C223" s="66"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9660,13 +9145,13 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="57"/>
-      <c r="R223" s="60"/>
+      <c r="Q223" s="68"/>
+      <c r="R223" s="70"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
-      <c r="B224" s="57"/>
-      <c r="C224" s="59"/>
+      <c r="B224" s="68"/>
+      <c r="C224" s="66"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9695,13 +9180,13 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="57"/>
-      <c r="R224" s="60"/>
+      <c r="Q224" s="68"/>
+      <c r="R224" s="70"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
-      <c r="B225" s="57"/>
-      <c r="C225" s="59"/>
+      <c r="B225" s="68"/>
+      <c r="C225" s="66"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9730,13 +9215,13 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="57"/>
-      <c r="R225" s="60"/>
+      <c r="Q225" s="68"/>
+      <c r="R225" s="70"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
-      <c r="B226" s="57"/>
-      <c r="C226" s="59"/>
+      <c r="B226" s="68"/>
+      <c r="C226" s="66"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9765,13 +9250,13 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="57"/>
-      <c r="R226" s="60"/>
+      <c r="Q226" s="68"/>
+      <c r="R226" s="70"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
-      <c r="B227" s="57"/>
-      <c r="C227" s="59"/>
+      <c r="B227" s="68"/>
+      <c r="C227" s="66"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9800,13 +9285,13 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="57"/>
-      <c r="R227" s="60"/>
+      <c r="Q227" s="68"/>
+      <c r="R227" s="70"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
-      <c r="B228" s="57"/>
-      <c r="C228" s="59"/>
+      <c r="B228" s="68"/>
+      <c r="C228" s="66"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9835,13 +9320,13 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="57"/>
-      <c r="R228" s="60"/>
+      <c r="Q228" s="68"/>
+      <c r="R228" s="70"/>
     </row>
     <row r="229" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="59"/>
+      <c r="B229" s="69"/>
+      <c r="C229" s="66"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9870,13 +9355,13 @@
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
-      <c r="Q229" s="58"/>
-      <c r="R229" s="60"/>
+      <c r="Q229" s="69"/>
+      <c r="R229" s="70"/>
     </row>
     <row r="230" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
-      <c r="B230" s="56"/>
-      <c r="C230" s="59"/>
+      <c r="B230" s="67"/>
+      <c r="C230" s="66"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9905,13 +9390,13 @@
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
       <c r="P230" s="40"/>
-      <c r="Q230" s="56"/>
-      <c r="R230" s="60"/>
+      <c r="Q230" s="67"/>
+      <c r="R230" s="70"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="14"/>
-      <c r="B231" s="57"/>
-      <c r="C231" s="59"/>
+      <c r="B231" s="68"/>
+      <c r="C231" s="66"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9940,13 +9425,13 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="40"/>
-      <c r="Q231" s="57"/>
-      <c r="R231" s="60"/>
+      <c r="Q231" s="68"/>
+      <c r="R231" s="70"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
-      <c r="B232" s="57"/>
-      <c r="C232" s="59"/>
+      <c r="B232" s="68"/>
+      <c r="C232" s="66"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9975,13 +9460,13 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="57"/>
-      <c r="R232" s="60"/>
+      <c r="Q232" s="68"/>
+      <c r="R232" s="70"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
-      <c r="B233" s="57"/>
-      <c r="C233" s="59"/>
+      <c r="B233" s="68"/>
+      <c r="C233" s="66"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10010,13 +9495,13 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="57"/>
-      <c r="R233" s="60"/>
+      <c r="Q233" s="68"/>
+      <c r="R233" s="70"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
-      <c r="B234" s="57"/>
-      <c r="C234" s="59"/>
+      <c r="B234" s="68"/>
+      <c r="C234" s="66"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10045,13 +9530,13 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="57"/>
-      <c r="R234" s="60"/>
+      <c r="Q234" s="68"/>
+      <c r="R234" s="70"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
-      <c r="B235" s="57"/>
-      <c r="C235" s="59"/>
+      <c r="B235" s="68"/>
+      <c r="C235" s="66"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10080,13 +9565,13 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="57"/>
-      <c r="R235" s="60"/>
+      <c r="Q235" s="68"/>
+      <c r="R235" s="70"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
-      <c r="B236" s="57"/>
-      <c r="C236" s="59"/>
+      <c r="B236" s="68"/>
+      <c r="C236" s="66"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10115,13 +9600,13 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="57"/>
-      <c r="R236" s="60"/>
+      <c r="Q236" s="68"/>
+      <c r="R236" s="70"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
-      <c r="B237" s="57"/>
-      <c r="C237" s="59"/>
+      <c r="B237" s="68"/>
+      <c r="C237" s="66"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10150,13 +9635,13 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="57"/>
-      <c r="R237" s="60"/>
+      <c r="Q237" s="68"/>
+      <c r="R237" s="70"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="14"/>
-      <c r="B238" s="57"/>
-      <c r="C238" s="59"/>
+      <c r="B238" s="68"/>
+      <c r="C238" s="66"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10185,13 +9670,13 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="57"/>
-      <c r="R238" s="60"/>
+      <c r="Q238" s="68"/>
+      <c r="R238" s="70"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="14"/>
-      <c r="B239" s="57"/>
-      <c r="C239" s="59"/>
+      <c r="B239" s="68"/>
+      <c r="C239" s="66"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10220,13 +9705,13 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="57"/>
-      <c r="R239" s="60"/>
+      <c r="Q239" s="68"/>
+      <c r="R239" s="70"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
-      <c r="B240" s="57"/>
-      <c r="C240" s="59"/>
+      <c r="B240" s="68"/>
+      <c r="C240" s="66"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10255,13 +9740,13 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="57"/>
-      <c r="R240" s="60"/>
+      <c r="Q240" s="68"/>
+      <c r="R240" s="70"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
-      <c r="B241" s="57"/>
-      <c r="C241" s="59"/>
+      <c r="B241" s="68"/>
+      <c r="C241" s="66"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10290,13 +9775,13 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="57"/>
-      <c r="R241" s="60"/>
+      <c r="Q241" s="68"/>
+      <c r="R241" s="70"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
-      <c r="B242" s="57"/>
-      <c r="C242" s="59"/>
+      <c r="B242" s="68"/>
+      <c r="C242" s="66"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10325,13 +9810,13 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="57"/>
-      <c r="R242" s="60"/>
+      <c r="Q242" s="68"/>
+      <c r="R242" s="70"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
-      <c r="B243" s="57"/>
-      <c r="C243" s="59"/>
+      <c r="B243" s="68"/>
+      <c r="C243" s="66"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10360,13 +9845,13 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="57"/>
-      <c r="R243" s="60"/>
+      <c r="Q243" s="68"/>
+      <c r="R243" s="70"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
-      <c r="B244" s="58"/>
-      <c r="C244" s="59"/>
+      <c r="B244" s="69"/>
+      <c r="C244" s="66"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10395,13 +9880,13 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="58"/>
-      <c r="R244" s="60"/>
+      <c r="Q244" s="69"/>
+      <c r="R244" s="70"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="56"/>
-      <c r="C245" s="59"/>
+      <c r="B245" s="67"/>
+      <c r="C245" s="66"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10430,13 +9915,13 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="56"/>
-      <c r="R245" s="60"/>
+      <c r="Q245" s="67"/>
+      <c r="R245" s="70"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
-      <c r="B246" s="57"/>
-      <c r="C246" s="59"/>
+      <c r="B246" s="68"/>
+      <c r="C246" s="66"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10465,13 +9950,13 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="57"/>
-      <c r="R246" s="60"/>
+      <c r="Q246" s="68"/>
+      <c r="R246" s="70"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
-      <c r="B247" s="57"/>
-      <c r="C247" s="59"/>
+      <c r="B247" s="68"/>
+      <c r="C247" s="66"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10500,13 +9985,13 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="57"/>
-      <c r="R247" s="60"/>
+      <c r="Q247" s="68"/>
+      <c r="R247" s="70"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
-      <c r="B248" s="57"/>
-      <c r="C248" s="59"/>
+      <c r="B248" s="68"/>
+      <c r="C248" s="66"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10535,13 +10020,13 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="57"/>
-      <c r="R248" s="60"/>
+      <c r="Q248" s="68"/>
+      <c r="R248" s="70"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
-      <c r="B249" s="57"/>
-      <c r="C249" s="59"/>
+      <c r="B249" s="68"/>
+      <c r="C249" s="66"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10570,13 +10055,13 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="57"/>
-      <c r="R249" s="60"/>
+      <c r="Q249" s="68"/>
+      <c r="R249" s="70"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
-      <c r="B250" s="57"/>
-      <c r="C250" s="59"/>
+      <c r="B250" s="68"/>
+      <c r="C250" s="66"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10605,13 +10090,13 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="57"/>
-      <c r="R250" s="60"/>
+      <c r="Q250" s="68"/>
+      <c r="R250" s="70"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
-      <c r="B251" s="57"/>
-      <c r="C251" s="59"/>
+      <c r="B251" s="68"/>
+      <c r="C251" s="66"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10640,13 +10125,13 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="57"/>
-      <c r="R251" s="60"/>
+      <c r="Q251" s="68"/>
+      <c r="R251" s="70"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
-      <c r="B252" s="57"/>
-      <c r="C252" s="59"/>
+      <c r="B252" s="68"/>
+      <c r="C252" s="66"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10675,13 +10160,13 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="57"/>
-      <c r="R252" s="60"/>
+      <c r="Q252" s="68"/>
+      <c r="R252" s="70"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
-      <c r="B253" s="57"/>
-      <c r="C253" s="59"/>
+      <c r="B253" s="68"/>
+      <c r="C253" s="66"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10710,13 +10195,13 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="57"/>
-      <c r="R253" s="60"/>
+      <c r="Q253" s="68"/>
+      <c r="R253" s="70"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
-      <c r="B254" s="57"/>
-      <c r="C254" s="59"/>
+      <c r="B254" s="68"/>
+      <c r="C254" s="66"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10745,13 +10230,13 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="57"/>
-      <c r="R254" s="60"/>
+      <c r="Q254" s="68"/>
+      <c r="R254" s="70"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="57"/>
-      <c r="C255" s="59"/>
+      <c r="B255" s="68"/>
+      <c r="C255" s="66"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10780,13 +10265,13 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="57"/>
-      <c r="R255" s="60"/>
+      <c r="Q255" s="68"/>
+      <c r="R255" s="70"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="57"/>
-      <c r="C256" s="59"/>
+      <c r="B256" s="68"/>
+      <c r="C256" s="66"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10815,13 +10300,13 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="57"/>
-      <c r="R256" s="60"/>
+      <c r="Q256" s="68"/>
+      <c r="R256" s="70"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="57"/>
-      <c r="C257" s="59"/>
+      <c r="B257" s="68"/>
+      <c r="C257" s="66"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10850,13 +10335,13 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="57"/>
-      <c r="R257" s="60"/>
+      <c r="Q257" s="68"/>
+      <c r="R257" s="70"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
-      <c r="B258" s="57"/>
-      <c r="C258" s="59"/>
+      <c r="B258" s="68"/>
+      <c r="C258" s="66"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10885,13 +10370,13 @@
       <c r="N258" s="10"/>
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
-      <c r="Q258" s="57"/>
-      <c r="R258" s="60"/>
+      <c r="Q258" s="68"/>
+      <c r="R258" s="70"/>
     </row>
     <row r="259" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="59"/>
+      <c r="B259" s="69"/>
+      <c r="C259" s="66"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10920,13 +10405,13 @@
       <c r="N259" s="45"/>
       <c r="O259" s="45"/>
       <c r="P259" s="45"/>
-      <c r="Q259" s="58"/>
-      <c r="R259" s="60"/>
+      <c r="Q259" s="69"/>
+      <c r="R259" s="70"/>
     </row>
     <row r="260" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
-      <c r="B260" s="56"/>
-      <c r="C260" s="59"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="66"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10955,13 +10440,13 @@
       <c r="N260" s="45"/>
       <c r="O260" s="45"/>
       <c r="P260" s="45"/>
-      <c r="Q260" s="56"/>
-      <c r="R260" s="60"/>
+      <c r="Q260" s="67"/>
+      <c r="R260" s="70"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
-      <c r="B261" s="57"/>
-      <c r="C261" s="59"/>
+      <c r="B261" s="68"/>
+      <c r="C261" s="66"/>
       <c r="D261" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10990,13 +10475,13 @@
       <c r="N261" s="45"/>
       <c r="O261" s="45"/>
       <c r="P261" s="45"/>
-      <c r="Q261" s="57"/>
-      <c r="R261" s="60"/>
+      <c r="Q261" s="68"/>
+      <c r="R261" s="70"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
-      <c r="B262" s="57"/>
-      <c r="C262" s="59"/>
+      <c r="B262" s="68"/>
+      <c r="C262" s="66"/>
       <c r="D262" s="4" t="str">
         <f t="shared" ref="D262:D274" si="16">IF(LEN(E262)&gt;5,IF(LEN(K262&amp;L262&amp;M262)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -11025,13 +10510,13 @@
       <c r="N262" s="45"/>
       <c r="O262" s="45"/>
       <c r="P262" s="45"/>
-      <c r="Q262" s="57"/>
-      <c r="R262" s="60"/>
+      <c r="Q262" s="68"/>
+      <c r="R262" s="70"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
-      <c r="B263" s="57"/>
-      <c r="C263" s="59"/>
+      <c r="B263" s="68"/>
+      <c r="C263" s="66"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11060,13 +10545,13 @@
       <c r="N263" s="45"/>
       <c r="O263" s="45"/>
       <c r="P263" s="45"/>
-      <c r="Q263" s="57"/>
-      <c r="R263" s="60"/>
+      <c r="Q263" s="68"/>
+      <c r="R263" s="70"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
-      <c r="B264" s="57"/>
-      <c r="C264" s="59"/>
+      <c r="B264" s="68"/>
+      <c r="C264" s="66"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11095,13 +10580,13 @@
       <c r="N264" s="45"/>
       <c r="O264" s="45"/>
       <c r="P264" s="45"/>
-      <c r="Q264" s="57"/>
-      <c r="R264" s="60"/>
+      <c r="Q264" s="68"/>
+      <c r="R264" s="70"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
-      <c r="B265" s="57"/>
-      <c r="C265" s="59"/>
+      <c r="B265" s="68"/>
+      <c r="C265" s="66"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11130,13 +10615,13 @@
       <c r="N265" s="45"/>
       <c r="O265" s="45"/>
       <c r="P265" s="45"/>
-      <c r="Q265" s="57"/>
-      <c r="R265" s="60"/>
+      <c r="Q265" s="68"/>
+      <c r="R265" s="70"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
-      <c r="B266" s="57"/>
-      <c r="C266" s="59"/>
+      <c r="B266" s="68"/>
+      <c r="C266" s="66"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11165,13 +10650,13 @@
       <c r="N266" s="45"/>
       <c r="O266" s="45"/>
       <c r="P266" s="45"/>
-      <c r="Q266" s="57"/>
-      <c r="R266" s="60"/>
+      <c r="Q266" s="68"/>
+      <c r="R266" s="70"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
-      <c r="B267" s="57"/>
-      <c r="C267" s="59"/>
+      <c r="B267" s="68"/>
+      <c r="C267" s="66"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11199,13 +10684,13 @@
       </c>
       <c r="N267" s="45"/>
       <c r="P267" s="45"/>
-      <c r="Q267" s="57"/>
-      <c r="R267" s="60"/>
+      <c r="Q267" s="68"/>
+      <c r="R267" s="70"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
-      <c r="B268" s="57"/>
-      <c r="C268" s="59"/>
+      <c r="B268" s="68"/>
+      <c r="C268" s="66"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11234,13 +10719,13 @@
       <c r="N268" s="45"/>
       <c r="O268" s="45"/>
       <c r="P268" s="45"/>
-      <c r="Q268" s="57"/>
-      <c r="R268" s="60"/>
+      <c r="Q268" s="68"/>
+      <c r="R268" s="70"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
-      <c r="B269" s="57"/>
-      <c r="C269" s="59"/>
+      <c r="B269" s="68"/>
+      <c r="C269" s="66"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11269,13 +10754,13 @@
       <c r="N269" s="45"/>
       <c r="O269" s="45"/>
       <c r="P269" s="45"/>
-      <c r="Q269" s="57"/>
-      <c r="R269" s="60"/>
+      <c r="Q269" s="68"/>
+      <c r="R269" s="70"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
-      <c r="B270" s="57"/>
-      <c r="C270" s="59"/>
+      <c r="B270" s="68"/>
+      <c r="C270" s="66"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11304,13 +10789,13 @@
       <c r="N270" s="45"/>
       <c r="O270" s="45"/>
       <c r="P270" s="45"/>
-      <c r="Q270" s="57"/>
-      <c r="R270" s="60"/>
+      <c r="Q270" s="68"/>
+      <c r="R270" s="70"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
-      <c r="B271" s="57"/>
-      <c r="C271" s="59"/>
+      <c r="B271" s="68"/>
+      <c r="C271" s="66"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11339,13 +10824,13 @@
       <c r="N271" s="45"/>
       <c r="O271" s="45"/>
       <c r="P271" s="45"/>
-      <c r="Q271" s="57"/>
-      <c r="R271" s="60"/>
+      <c r="Q271" s="68"/>
+      <c r="R271" s="70"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
-      <c r="B272" s="57"/>
-      <c r="C272" s="59"/>
+      <c r="B272" s="68"/>
+      <c r="C272" s="66"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11374,13 +10859,13 @@
       <c r="N272" s="45"/>
       <c r="O272" s="45"/>
       <c r="P272" s="45"/>
-      <c r="Q272" s="57"/>
-      <c r="R272" s="60"/>
+      <c r="Q272" s="68"/>
+      <c r="R272" s="70"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
-      <c r="B273" s="57"/>
-      <c r="C273" s="59"/>
+      <c r="B273" s="68"/>
+      <c r="C273" s="66"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11409,13 +10894,13 @@
       <c r="N273" s="45"/>
       <c r="O273" s="45"/>
       <c r="P273" s="45"/>
-      <c r="Q273" s="57"/>
-      <c r="R273" s="60"/>
+      <c r="Q273" s="68"/>
+      <c r="R273" s="70"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="26"/>
-      <c r="B274" s="58"/>
-      <c r="C274" s="59"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="66"/>
       <c r="D274" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11444,8 +10929,8 @@
       <c r="N274" s="45"/>
       <c r="O274" s="45"/>
       <c r="P274" s="45"/>
-      <c r="Q274" s="58"/>
-      <c r="R274" s="60"/>
+      <c r="Q274" s="69"/>
+      <c r="R274" s="70"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G275" s="51"/>
@@ -11463,7 +10948,7 @@
     </row>
     <row r="276" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B276" s="53"/>
       <c r="C276" s="53"/>
@@ -11505,6 +10990,50 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
+    <mergeCell ref="B245:B259"/>
+    <mergeCell ref="C245:C259"/>
+    <mergeCell ref="Q245:Q259"/>
+    <mergeCell ref="B260:B274"/>
+    <mergeCell ref="C260:C274"/>
+    <mergeCell ref="Q260:Q274"/>
+    <mergeCell ref="B215:B229"/>
+    <mergeCell ref="C215:C229"/>
+    <mergeCell ref="Q215:Q229"/>
+    <mergeCell ref="B230:B244"/>
+    <mergeCell ref="C230:C244"/>
+    <mergeCell ref="Q230:Q244"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="Q185:Q199"/>
+    <mergeCell ref="B200:B214"/>
+    <mergeCell ref="C200:C214"/>
+    <mergeCell ref="Q200:Q214"/>
+    <mergeCell ref="R95:R274"/>
+    <mergeCell ref="B110:B124"/>
+    <mergeCell ref="C110:C124"/>
+    <mergeCell ref="Q110:Q124"/>
+    <mergeCell ref="B125:B139"/>
+    <mergeCell ref="C125:C139"/>
+    <mergeCell ref="Q125:Q139"/>
+    <mergeCell ref="B140:B154"/>
+    <mergeCell ref="C140:C154"/>
+    <mergeCell ref="Q140:Q154"/>
+    <mergeCell ref="B155:B169"/>
+    <mergeCell ref="C155:C169"/>
+    <mergeCell ref="Q155:Q169"/>
+    <mergeCell ref="B170:B184"/>
+    <mergeCell ref="C170:C184"/>
+    <mergeCell ref="Q170:Q184"/>
+    <mergeCell ref="C80:C94"/>
+    <mergeCell ref="Q80:Q94"/>
+    <mergeCell ref="B95:B109"/>
+    <mergeCell ref="C95:C109"/>
+    <mergeCell ref="Q95:Q109"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
     <mergeCell ref="R4:R94"/>
     <mergeCell ref="A19:A79"/>
     <mergeCell ref="B19:B34"/>
@@ -11521,124 +11050,80 @@
     <mergeCell ref="Q65:Q79"/>
     <mergeCell ref="A80:A109"/>
     <mergeCell ref="B80:B94"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="C80:C94"/>
-    <mergeCell ref="Q80:Q94"/>
-    <mergeCell ref="B95:B109"/>
-    <mergeCell ref="C95:C109"/>
-    <mergeCell ref="Q95:Q109"/>
-    <mergeCell ref="R95:R274"/>
-    <mergeCell ref="B110:B124"/>
-    <mergeCell ref="C110:C124"/>
-    <mergeCell ref="Q110:Q124"/>
-    <mergeCell ref="B125:B139"/>
-    <mergeCell ref="C125:C139"/>
-    <mergeCell ref="Q125:Q139"/>
-    <mergeCell ref="B140:B154"/>
-    <mergeCell ref="C140:C154"/>
-    <mergeCell ref="Q140:Q154"/>
-    <mergeCell ref="B155:B169"/>
-    <mergeCell ref="C155:C169"/>
-    <mergeCell ref="Q155:Q169"/>
-    <mergeCell ref="B170:B184"/>
-    <mergeCell ref="C170:C184"/>
-    <mergeCell ref="Q170:Q184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="Q185:Q199"/>
-    <mergeCell ref="B200:B214"/>
-    <mergeCell ref="C200:C214"/>
-    <mergeCell ref="Q200:Q214"/>
-    <mergeCell ref="B215:B229"/>
-    <mergeCell ref="C215:C229"/>
-    <mergeCell ref="Q215:Q229"/>
-    <mergeCell ref="B230:B244"/>
-    <mergeCell ref="C230:C244"/>
-    <mergeCell ref="Q230:Q244"/>
-    <mergeCell ref="B245:B259"/>
-    <mergeCell ref="C245:C259"/>
-    <mergeCell ref="Q245:Q259"/>
-    <mergeCell ref="B260:B274"/>
-    <mergeCell ref="C260:C274"/>
-    <mergeCell ref="Q260:Q274"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J277">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G274 G4:G84">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5 H7:H277">
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275:R277">
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
       <formula>R275="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
       <formula>R275="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R274">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D274">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>G85="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>G85="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11663,27 +11148,31 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E66" r:id="rId1" display="PQA SM review"/>
-    <hyperlink ref="E95" r:id="rId2" display="Training data"/>
-    <hyperlink ref="E96" r:id="rId3"/>
-    <hyperlink ref="E83" r:id="rId4" display="PQA SM review"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E19" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="E39" r:id="rId10"/>
-    <hyperlink ref="E52" r:id="rId11"/>
-    <hyperlink ref="E65" r:id="rId12" display="ORG_PEG_MINMET_C16"/>
-    <hyperlink ref="E67" r:id="rId13" display="Audit report sent mail"/>
-    <hyperlink ref="E80" r:id="rId14"/>
-    <hyperlink ref="E81" r:id="rId15"/>
-    <hyperlink ref="E82" r:id="rId16" display="ORG_PEG_MINMET_C16"/>
-    <hyperlink ref="E50" r:id="rId17"/>
-    <hyperlink ref="E51" r:id="rId18"/>
+    <hyperlink ref="E95" r:id="rId1" display="Training data"/>
+    <hyperlink ref="E96" r:id="rId2"/>
+    <hyperlink ref="E83" r:id="rId3" display="PQA SM review"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E19" r:id="rId6"/>
+    <hyperlink ref="E20" r:id="rId7"/>
+    <hyperlink ref="E21" r:id="rId8"/>
+    <hyperlink ref="E52" r:id="rId9"/>
+    <hyperlink ref="E65" r:id="rId10" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E80" r:id="rId11"/>
+    <hyperlink ref="E81" r:id="rId12"/>
+    <hyperlink ref="E82" r:id="rId13" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E50" r:id="rId14"/>
+    <hyperlink ref="E51" r:id="rId15"/>
+    <hyperlink ref="E22" r:id="rId16" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="E35" r:id="rId18"/>
+    <hyperlink ref="E36" r:id="rId19"/>
+    <hyperlink ref="E38" r:id="rId20" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E66" r:id="rId21"/>
+    <hyperlink ref="E67" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>

--- a/KPMG/Benchmark Appraisal/PIID/GOV.xlsx
+++ b/KPMG/Benchmark Appraisal/PIID/GOV.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>GOV</t>
   </si>
@@ -128,9 +128,6 @@
     <t xml:space="preserve">Senior management holds people accountable for adhering to organization directives and achieving process implementation and improvement objectives. </t>
   </si>
   <si>
-    <t>ORG_PQA SM review</t>
-  </si>
-  <si>
     <t>Level 3</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>Training function review by SM to check competencies.</t>
-  </si>
-  <si>
-    <t>GGE200_MLSRVW</t>
   </si>
   <si>
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
@@ -176,25 +170,16 @@
     <t>ORG_QMS</t>
   </si>
   <si>
-    <t>ORG_PEG_MINMET</t>
-  </si>
-  <si>
     <t>ORG_PEG_MINMET_C16</t>
   </si>
   <si>
     <t>Audit Reports</t>
   </si>
   <si>
-    <t>PEG Review with SM</t>
-  </si>
-  <si>
     <t>ORG_PEG_Review</t>
   </si>
   <si>
     <t>ORG_MBR</t>
-  </si>
-  <si>
-    <t>MBR Review by senior management. (C------)</t>
   </si>
   <si>
     <t>Project_Milestonereview</t>
@@ -207,9 +192,6 @@
   </si>
   <si>
     <t>PQA_Review</t>
-  </si>
-  <si>
-    <t>During milestone review senior management concerns about what skills required to do this project and check status : Project planning point.</t>
   </si>
   <si>
     <t>Disccussion with SM during SM review regarding Business objectives goal Line Rejection.</t>
@@ -228,6 +210,36 @@
   </si>
   <si>
     <t>MBR Review by senior management. (C32), regarding schedule variance, Senior management asked to project managers.</t>
+  </si>
+  <si>
+    <t>Filled agenda list of PEG Review with SM</t>
+  </si>
+  <si>
+    <t>ORG_PEG_PLAN_Approval</t>
+  </si>
+  <si>
+    <t>In Einframe start gate approval as PEG plan approval.</t>
+  </si>
+  <si>
+    <t>PEG Review agenda list in which stackholders involvement and process improvements reviewed.</t>
+  </si>
+  <si>
+    <t>BOTOPO Approval : Business objectives as communicated by senior management mapped with process objective.</t>
+  </si>
+  <si>
+    <t>GGE302_MLSRVW</t>
+  </si>
+  <si>
+    <t>Via Einframe Gates Report During milestone review senior management concerns about what skills / resources required to do this project.</t>
+  </si>
+  <si>
+    <t>ORG_BOTOPO_Approval</t>
+  </si>
+  <si>
+    <t>Discussed BOTOPO approval by Senior management.</t>
+  </si>
+  <si>
+    <t>MBR Review by senior management. (C32) in which business objectives discussed and goal reviewed.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +501,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,7 +671,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,9 +699,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,29 +713,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -717,21 +726,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1200,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1215,10 +1210,10 @@
   <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1233,25 +1228,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1298,13 +1293,13 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="63">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="71" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1312,13 +1307,13 @@
         <v>OK</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="8" t="str">
@@ -1341,13 +1336,13 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D69" si="2">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
@@ -1356,10 +1351,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8" t="str">
@@ -1382,13 +1377,13 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="56"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="66"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1417,13 +1412,13 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="56"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1452,13 +1447,13 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="56"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="66"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1487,13 +1482,13 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="56"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1522,13 +1517,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="56"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="66"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1557,13 +1552,13 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="56"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="66"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1592,13 +1587,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="56"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="66"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1627,13 +1622,13 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="56"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1662,13 +1657,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="56"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="66"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1697,13 +1692,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="56"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1732,13 +1727,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="56"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1767,13 +1762,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="56"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1802,13 +1797,13 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="56"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1837,17 +1832,17 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="56"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="63">
         <v>2.1</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="str">
@@ -1861,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="8" t="str">
@@ -1884,13 +1879,13 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="56"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1899,10 +1894,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="8" t="str">
@@ -1925,25 +1920,25 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="56"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="8"/>
@@ -1957,25 +1952,25 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="56"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8" t="str">
@@ -1998,13 +1993,13 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="56"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="70"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2033,13 +2028,13 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="56"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="70"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2068,13 +2063,13 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="56"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="70"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2103,13 +2098,13 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="56"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="70"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="60"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2119,7 +2114,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="7" t="str">
@@ -2137,13 +2132,13 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="56"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="70"/>
     </row>
     <row r="27" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2172,13 +2167,13 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="56"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="70"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2207,13 +2202,13 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="56"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="70"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2242,13 +2237,13 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="56"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="70"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2277,13 +2272,13 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="56"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="70"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2312,13 +2307,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="56"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="70"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2347,13 +2342,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="56"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="70"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2382,13 +2377,13 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="56"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="70"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2417,15 +2412,15 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="56"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="70"/>
     </row>
     <row r="35" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57">
+      <c r="A35" s="70"/>
+      <c r="B35" s="63">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="62" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="4" t="str">
@@ -2433,13 +2428,13 @@
         <v>OK</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="8" t="str">
@@ -2462,25 +2457,25 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="56"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="70"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="60"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="8" t="str">
@@ -2503,25 +2498,25 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="56"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="60"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="70"/>
+    </row>
+    <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="8" t="str">
@@ -2544,25 +2539,25 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="56"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="70"/>
     </row>
     <row r="38" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="60"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="8" t="str">
@@ -2585,20 +2580,26 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="56"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="60"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="70"/>
+    </row>
+    <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
+        <v>OK</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2607,26 +2608,26 @@
       <c r="J39" s="8"/>
       <c r="K39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="56"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="70"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="60"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2655,13 +2656,13 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="56"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="70"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2690,13 +2691,13 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="56"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="70"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="60"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2725,13 +2726,13 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="56"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="70"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="60"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2760,13 +2761,13 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="56"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="70"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="60"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2795,13 +2796,13 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="56"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="70"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="60"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2830,13 +2831,13 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="56"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="70"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2865,13 +2866,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="56"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="70"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="60"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2900,13 +2901,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="56"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="70"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="60"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2935,13 +2936,13 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="56"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="70"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2970,15 +2971,15 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="56"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="70"/>
     </row>
     <row r="50" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57">
+      <c r="A50" s="70"/>
+      <c r="B50" s="63">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="4" t="str">
@@ -2986,13 +2987,13 @@
         <v>OK</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="8" t="str">
@@ -3015,25 +3016,25 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="56"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="70"/>
     </row>
     <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="8" t="str">
@@ -3056,25 +3057,25 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="56"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="60"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="8" t="str">
@@ -3097,13 +3098,13 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="56"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="70"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="60"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3132,13 +3133,13 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="56"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="70"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="60"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3167,13 +3168,13 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="56"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="70"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="60"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3202,13 +3203,13 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="56"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="70"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="60"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3237,13 +3238,13 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="56"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="70"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="60"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3272,13 +3273,13 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="56"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="70"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="60"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3307,13 +3308,13 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="56"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="70"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="60"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3342,13 +3343,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="56"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="70"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="60"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3377,13 +3378,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="56"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="70"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="60"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3412,13 +3413,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="56"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="70"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="60"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3447,13 +3448,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="56"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="70"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="60"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3482,13 +3483,13 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="56"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="70"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="60"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3517,15 +3518,15 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="56"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="70"/>
     </row>
     <row r="65" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="57">
+      <c r="A65" s="70"/>
+      <c r="B65" s="63">
         <v>2.4</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="4" t="str">
@@ -3533,13 +3534,13 @@
         <v>OK</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="8" t="str">
@@ -3562,25 +3563,25 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="56"/>
-    </row>
-    <row r="66" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="60"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="70"/>
+    </row>
+    <row r="66" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="8" t="str">
@@ -3590,7 +3591,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L66" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3603,25 +3604,25 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="56"/>
-    </row>
-    <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="60"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="70"/>
+    </row>
+    <row r="67" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="8" t="str">
@@ -3644,19 +3645,23 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="56"/>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="60"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="70"/>
+    </row>
+    <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
+        <v>OK</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8" t="str">
@@ -3670,22 +3675,22 @@
       </c>
       <c r="L68" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M68" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="58"/>
-      <c r="R68" s="56"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="70"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="60"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3714,13 +3719,13 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="56"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="70"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="60"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="4" t="str">
         <f t="shared" ref="D70:D133" si="5">IF(LEN(E70)&gt;5,IF(LEN(K70&amp;L70&amp;M70)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3749,13 +3754,13 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="58"/>
-      <c r="R70" s="56"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="70"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="60"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3784,13 +3789,13 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="58"/>
-      <c r="R71" s="56"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="70"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="60"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3819,13 +3824,13 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="58"/>
-      <c r="R72" s="56"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="70"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="60"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3854,13 +3859,13 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="58"/>
-      <c r="R73" s="56"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="70"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="60"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3889,13 +3894,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="56"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="70"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="60"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3924,13 +3929,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="56"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="70"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="60"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3959,13 +3964,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="56"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="70"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="60"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3994,13 +3999,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="58"/>
-      <c r="R77" s="56"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="70"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="60"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4029,13 +4034,13 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="58"/>
-      <c r="R78" s="56"/>
+      <c r="Q78" s="64"/>
+      <c r="R78" s="70"/>
     </row>
     <row r="79" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="60"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4064,18 +4069,18 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="56"/>
+      <c r="Q79" s="65"/>
+      <c r="R79" s="70"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="63">
+        <v>3.1</v>
+      </c>
+      <c r="C80" s="62" t="s">
         <v>29</v>
-      </c>
-      <c r="B80" s="57">
-        <v>3.1</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>30</v>
       </c>
       <c r="D80" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4085,10 +4090,10 @@
         <v>19</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8" t="str">
@@ -4111,25 +4116,25 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="56"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="70"/>
     </row>
     <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="60"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="8" t="str">
@@ -4152,25 +4157,25 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="56"/>
-    </row>
-    <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="60"/>
+      <c r="Q81" s="64"/>
+      <c r="R81" s="70"/>
+    </row>
+    <row r="82" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8" t="str">
@@ -4193,25 +4198,25 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="56"/>
+      <c r="Q82" s="64"/>
+      <c r="R82" s="70"/>
     </row>
     <row r="83" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="60"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="E83" s="55" t="s">
-        <v>28</v>
+      <c r="E83" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="8" t="str">
@@ -4221,7 +4226,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L83" s="7" t="str">
         <f t="shared" si="7"/>
@@ -4234,13 +4239,13 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="56"/>
+      <c r="Q83" s="64"/>
+      <c r="R83" s="70"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="60"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4269,13 +4274,13 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="56"/>
+      <c r="Q84" s="64"/>
+      <c r="R84" s="70"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="60"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4304,13 +4309,13 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="56"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="70"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="60"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4339,13 +4344,13 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="58"/>
-      <c r="R86" s="56"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="70"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="60"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4374,13 +4379,13 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="58"/>
-      <c r="R87" s="56"/>
+      <c r="Q87" s="64"/>
+      <c r="R87" s="70"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="60"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4409,13 +4414,13 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="58"/>
-      <c r="R88" s="56"/>
+      <c r="Q88" s="64"/>
+      <c r="R88" s="70"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="60"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4444,13 +4449,13 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="58"/>
-      <c r="R89" s="56"/>
+      <c r="Q89" s="64"/>
+      <c r="R89" s="70"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="60"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4479,13 +4484,13 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="58"/>
-      <c r="R90" s="56"/>
+      <c r="Q90" s="64"/>
+      <c r="R90" s="70"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="60"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4514,13 +4519,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="58"/>
-      <c r="R91" s="56"/>
+      <c r="Q91" s="64"/>
+      <c r="R91" s="70"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="60"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4549,13 +4554,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="58"/>
-      <c r="R92" s="56"/>
+      <c r="Q92" s="64"/>
+      <c r="R92" s="70"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="60"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4584,13 +4589,13 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="56"/>
+      <c r="Q93" s="64"/>
+      <c r="R93" s="70"/>
     </row>
     <row r="94" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="60"/>
+      <c r="A94" s="70"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4619,29 +4624,29 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="56"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="70"/>
     </row>
     <row r="95" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
-      <c r="B95" s="67">
+      <c r="A95" s="70"/>
+      <c r="B95" s="57">
         <v>3.2</v>
       </c>
-      <c r="C95" s="66" t="s">
-        <v>31</v>
+      <c r="C95" s="60" t="s">
+        <v>30</v>
       </c>
       <c r="D95" s="13" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E95" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G95" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="8" t="str">
@@ -4664,25 +4669,25 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="67"/>
-      <c r="R95" s="70"/>
+      <c r="Q95" s="57"/>
+      <c r="R95" s="61"/>
     </row>
     <row r="96" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="66"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="8" t="str">
@@ -4705,20 +4710,26 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="68"/>
-      <c r="R96" s="70"/>
+      <c r="Q96" s="58"/>
+      <c r="R96" s="61"/>
     </row>
     <row r="97" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="66"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H97" s="7"/>
       <c r="I97" s="8" t="str">
         <f t="shared" si="6"/>
@@ -4727,33 +4738,39 @@
       <c r="J97" s="8"/>
       <c r="K97" s="7" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L97" s="7" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M97" s="7" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="68"/>
-      <c r="R97" s="70"/>
-    </row>
-    <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="66"/>
+      <c r="Q97" s="58"/>
+      <c r="R97" s="61"/>
+    </row>
+    <row r="98" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H98" s="7"/>
       <c r="I98" s="8" t="str">
         <f t="shared" si="6"/>
@@ -4762,26 +4779,26 @@
       <c r="J98" s="8"/>
       <c r="K98" s="7" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L98" s="7" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M98" s="7" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="68"/>
-      <c r="R98" s="70"/>
+      <c r="Q98" s="58"/>
+      <c r="R98" s="61"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="66"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="60"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4810,13 +4827,13 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="70"/>
+      <c r="Q99" s="58"/>
+      <c r="R99" s="61"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="66"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4845,13 +4862,13 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="68"/>
-      <c r="R100" s="70"/>
+      <c r="Q100" s="58"/>
+      <c r="R100" s="61"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="66"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="60"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4880,13 +4897,13 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="68"/>
-      <c r="R101" s="70"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="61"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="66"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="60"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4915,13 +4932,13 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="68"/>
-      <c r="R102" s="70"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="61"/>
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="66"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="60"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4950,13 +4967,13 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="68"/>
-      <c r="R103" s="70"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="61"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="66"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4985,13 +5002,13 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="68"/>
-      <c r="R104" s="70"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="61"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="66"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="60"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5020,13 +5037,13 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="68"/>
-      <c r="R105" s="70"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="61"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="66"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5055,13 +5072,13 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="70"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="61"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="66"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5090,13 +5107,13 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="68"/>
-      <c r="R107" s="70"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="61"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="66"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5125,13 +5142,13 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="68"/>
-      <c r="R108" s="70"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="61"/>
     </row>
     <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="66"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5160,13 +5177,13 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="69"/>
-      <c r="R109" s="70"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="61"/>
     </row>
     <row r="110" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="60"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5195,13 +5212,13 @@
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="67"/>
-      <c r="R110" s="70"/>
+      <c r="Q110" s="57"/>
+      <c r="R110" s="61"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="60"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5230,13 +5247,13 @@
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="68"/>
-      <c r="R111" s="70"/>
+      <c r="Q111" s="58"/>
+      <c r="R111" s="61"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="60"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5265,13 +5282,13 @@
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="68"/>
-      <c r="R112" s="70"/>
+      <c r="Q112" s="58"/>
+      <c r="R112" s="61"/>
     </row>
     <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="60"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="62"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5300,13 +5317,13 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="68"/>
-      <c r="R113" s="70"/>
+      <c r="Q113" s="58"/>
+      <c r="R113" s="61"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="60"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="62"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5335,13 +5352,13 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="68"/>
-      <c r="R114" s="70"/>
+      <c r="Q114" s="58"/>
+      <c r="R114" s="61"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="60"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="62"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5370,13 +5387,13 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="68"/>
-      <c r="R115" s="70"/>
+      <c r="Q115" s="58"/>
+      <c r="R115" s="61"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="60"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5405,13 +5422,13 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="68"/>
-      <c r="R116" s="70"/>
+      <c r="Q116" s="58"/>
+      <c r="R116" s="61"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="60"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5440,13 +5457,13 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="68"/>
-      <c r="R117" s="70"/>
+      <c r="Q117" s="58"/>
+      <c r="R117" s="61"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="60"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5475,13 +5492,13 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="68"/>
-      <c r="R118" s="70"/>
+      <c r="Q118" s="58"/>
+      <c r="R118" s="61"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="60"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5510,13 +5527,13 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="68"/>
-      <c r="R119" s="70"/>
+      <c r="Q119" s="58"/>
+      <c r="R119" s="61"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
-      <c r="B120" s="68"/>
-      <c r="C120" s="60"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5545,13 +5562,13 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="68"/>
-      <c r="R120" s="70"/>
+      <c r="Q120" s="58"/>
+      <c r="R120" s="61"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="60"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="62"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5580,13 +5597,13 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="68"/>
-      <c r="R121" s="70"/>
+      <c r="Q121" s="58"/>
+      <c r="R121" s="61"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="60"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5615,13 +5632,13 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="68"/>
-      <c r="R122" s="70"/>
+      <c r="Q122" s="58"/>
+      <c r="R122" s="61"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="60"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="62"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5650,13 +5667,13 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="68"/>
-      <c r="R123" s="70"/>
+      <c r="Q123" s="58"/>
+      <c r="R123" s="61"/>
     </row>
     <row r="124" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="60"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="62"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5684,13 +5701,13 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="69"/>
-      <c r="R124" s="70"/>
+      <c r="Q124" s="59"/>
+      <c r="R124" s="61"/>
     </row>
     <row r="125" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="66"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="60"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5719,13 +5736,13 @@
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="67"/>
-      <c r="R125" s="70"/>
+      <c r="Q125" s="57"/>
+      <c r="R125" s="61"/>
     </row>
     <row r="126" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
-      <c r="B126" s="68"/>
-      <c r="C126" s="66"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="60"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5754,13 +5771,13 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="68"/>
-      <c r="R126" s="70"/>
+      <c r="Q126" s="58"/>
+      <c r="R126" s="61"/>
     </row>
     <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="66"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="60"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5789,13 +5806,13 @@
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="68"/>
-      <c r="R127" s="70"/>
+      <c r="Q127" s="58"/>
+      <c r="R127" s="61"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="68"/>
-      <c r="C128" s="66"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="60"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5824,13 +5841,13 @@
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="68"/>
-      <c r="R128" s="70"/>
+      <c r="Q128" s="58"/>
+      <c r="R128" s="61"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="66"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="60"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5859,13 +5876,13 @@
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="68"/>
-      <c r="R129" s="70"/>
+      <c r="Q129" s="58"/>
+      <c r="R129" s="61"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
-      <c r="B130" s="68"/>
-      <c r="C130" s="66"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="60"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5894,13 +5911,13 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="68"/>
-      <c r="R130" s="70"/>
+      <c r="Q130" s="58"/>
+      <c r="R130" s="61"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
-      <c r="B131" s="68"/>
-      <c r="C131" s="66"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="60"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5929,13 +5946,13 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="68"/>
-      <c r="R131" s="70"/>
+      <c r="Q131" s="58"/>
+      <c r="R131" s="61"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
-      <c r="B132" s="68"/>
-      <c r="C132" s="66"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="60"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5963,13 +5980,13 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="68"/>
-      <c r="R132" s="70"/>
+      <c r="Q132" s="58"/>
+      <c r="R132" s="61"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
-      <c r="B133" s="68"/>
-      <c r="C133" s="66"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="60"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5998,13 +6015,13 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="68"/>
-      <c r="R133" s="70"/>
+      <c r="Q133" s="58"/>
+      <c r="R133" s="61"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="66"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="60"/>
       <c r="D134" s="4" t="str">
         <f t="shared" ref="D134:D197" si="8">IF(LEN(E134)&gt;5,IF(LEN(K134&amp;L134&amp;M134)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6032,13 +6049,13 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="68"/>
-      <c r="R134" s="70"/>
+      <c r="Q134" s="58"/>
+      <c r="R134" s="61"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
-      <c r="B135" s="68"/>
-      <c r="C135" s="66"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="60"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6067,13 +6084,13 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="68"/>
-      <c r="R135" s="70"/>
+      <c r="Q135" s="58"/>
+      <c r="R135" s="61"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="68"/>
-      <c r="C136" s="66"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="60"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6102,13 +6119,13 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="68"/>
-      <c r="R136" s="70"/>
+      <c r="Q136" s="58"/>
+      <c r="R136" s="61"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
-      <c r="B137" s="68"/>
-      <c r="C137" s="66"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="60"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6137,13 +6154,13 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="68"/>
-      <c r="R137" s="70"/>
+      <c r="Q137" s="58"/>
+      <c r="R137" s="61"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
-      <c r="B138" s="68"/>
-      <c r="C138" s="66"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="60"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6172,13 +6189,13 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="68"/>
-      <c r="R138" s="70"/>
+      <c r="Q138" s="58"/>
+      <c r="R138" s="61"/>
     </row>
     <row r="139" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
-      <c r="B139" s="69"/>
-      <c r="C139" s="66"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="60"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6207,13 +6224,13 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="69"/>
-      <c r="R139" s="70"/>
+      <c r="Q139" s="59"/>
+      <c r="R139" s="61"/>
     </row>
     <row r="140" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
-      <c r="B140" s="67"/>
-      <c r="C140" s="66"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="60"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6241,13 +6258,13 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="67"/>
-      <c r="R140" s="70"/>
+      <c r="Q140" s="57"/>
+      <c r="R140" s="61"/>
     </row>
     <row r="141" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
-      <c r="B141" s="68"/>
-      <c r="C141" s="66"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="60"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6276,13 +6293,13 @@
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="68"/>
-      <c r="R141" s="70"/>
+      <c r="Q141" s="58"/>
+      <c r="R141" s="61"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
-      <c r="B142" s="68"/>
-      <c r="C142" s="66"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="60"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6311,13 +6328,13 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="68"/>
-      <c r="R142" s="70"/>
+      <c r="Q142" s="58"/>
+      <c r="R142" s="61"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="66"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="60"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6346,13 +6363,13 @@
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="68"/>
-      <c r="R143" s="70"/>
+      <c r="Q143" s="58"/>
+      <c r="R143" s="61"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="66"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="60"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6381,13 +6398,13 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="68"/>
-      <c r="R144" s="70"/>
+      <c r="Q144" s="58"/>
+      <c r="R144" s="61"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
-      <c r="B145" s="68"/>
-      <c r="C145" s="66"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="60"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6416,13 +6433,13 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="68"/>
-      <c r="R145" s="70"/>
+      <c r="Q145" s="58"/>
+      <c r="R145" s="61"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="68"/>
-      <c r="C146" s="66"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="60"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6451,13 +6468,13 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="68"/>
-      <c r="R146" s="70"/>
+      <c r="Q146" s="58"/>
+      <c r="R146" s="61"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="66"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="60"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6486,13 +6503,13 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="68"/>
-      <c r="R147" s="70"/>
+      <c r="Q147" s="58"/>
+      <c r="R147" s="61"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
-      <c r="B148" s="68"/>
-      <c r="C148" s="66"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="60"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6521,13 +6538,13 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="68"/>
-      <c r="R148" s="70"/>
+      <c r="Q148" s="58"/>
+      <c r="R148" s="61"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
-      <c r="B149" s="68"/>
-      <c r="C149" s="66"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="60"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6556,13 +6573,13 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="68"/>
-      <c r="R149" s="70"/>
+      <c r="Q149" s="58"/>
+      <c r="R149" s="61"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
-      <c r="B150" s="68"/>
-      <c r="C150" s="66"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="60"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6591,13 +6608,13 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="68"/>
-      <c r="R150" s="70"/>
+      <c r="Q150" s="58"/>
+      <c r="R150" s="61"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
-      <c r="B151" s="68"/>
-      <c r="C151" s="66"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="60"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6626,13 +6643,13 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="68"/>
-      <c r="R151" s="70"/>
+      <c r="Q151" s="58"/>
+      <c r="R151" s="61"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
-      <c r="B152" s="68"/>
-      <c r="C152" s="66"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="60"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6661,13 +6678,13 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="68"/>
-      <c r="R152" s="70"/>
+      <c r="Q152" s="58"/>
+      <c r="R152" s="61"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
-      <c r="B153" s="68"/>
-      <c r="C153" s="66"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="60"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6696,13 +6713,13 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="68"/>
-      <c r="R153" s="70"/>
+      <c r="Q153" s="58"/>
+      <c r="R153" s="61"/>
     </row>
     <row r="154" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="69"/>
-      <c r="C154" s="66"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="60"/>
       <c r="D154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6731,13 +6748,13 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="69"/>
-      <c r="R154" s="70"/>
+      <c r="Q154" s="59"/>
+      <c r="R154" s="61"/>
     </row>
     <row r="155" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="67"/>
-      <c r="C155" s="66"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="60"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6766,13 +6783,13 @@
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="67"/>
-      <c r="R155" s="70"/>
+      <c r="Q155" s="57"/>
+      <c r="R155" s="61"/>
     </row>
     <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
-      <c r="B156" s="68"/>
-      <c r="C156" s="66"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="60"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6801,13 +6818,13 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="68"/>
-      <c r="R156" s="70"/>
+      <c r="Q156" s="58"/>
+      <c r="R156" s="61"/>
     </row>
     <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
-      <c r="B157" s="68"/>
-      <c r="C157" s="66"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="60"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6836,13 +6853,13 @@
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="68"/>
-      <c r="R157" s="70"/>
+      <c r="Q157" s="58"/>
+      <c r="R157" s="61"/>
     </row>
     <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
-      <c r="B158" s="68"/>
-      <c r="C158" s="66"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="60"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6871,13 +6888,13 @@
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="68"/>
-      <c r="R158" s="70"/>
+      <c r="Q158" s="58"/>
+      <c r="R158" s="61"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
-      <c r="B159" s="68"/>
-      <c r="C159" s="66"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="60"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6906,13 +6923,13 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="68"/>
-      <c r="R159" s="70"/>
+      <c r="Q159" s="58"/>
+      <c r="R159" s="61"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-      <c r="B160" s="68"/>
-      <c r="C160" s="66"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="60"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6941,13 +6958,13 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="68"/>
-      <c r="R160" s="70"/>
+      <c r="Q160" s="58"/>
+      <c r="R160" s="61"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
-      <c r="B161" s="68"/>
-      <c r="C161" s="66"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="60"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6976,13 +6993,13 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="68"/>
-      <c r="R161" s="70"/>
+      <c r="Q161" s="58"/>
+      <c r="R161" s="61"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
-      <c r="B162" s="68"/>
-      <c r="C162" s="66"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="60"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7011,13 +7028,13 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="68"/>
-      <c r="R162" s="70"/>
+      <c r="Q162" s="58"/>
+      <c r="R162" s="61"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
-      <c r="B163" s="68"/>
-      <c r="C163" s="66"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="60"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7046,13 +7063,13 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="68"/>
-      <c r="R163" s="70"/>
+      <c r="Q163" s="58"/>
+      <c r="R163" s="61"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="66"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7081,13 +7098,13 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="68"/>
-      <c r="R164" s="70"/>
+      <c r="Q164" s="58"/>
+      <c r="R164" s="61"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
-      <c r="B165" s="68"/>
-      <c r="C165" s="66"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="60"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7116,13 +7133,13 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="68"/>
-      <c r="R165" s="70"/>
+      <c r="Q165" s="58"/>
+      <c r="R165" s="61"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
-      <c r="B166" s="68"/>
-      <c r="C166" s="66"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="60"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7151,13 +7168,13 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="68"/>
-      <c r="R166" s="70"/>
+      <c r="Q166" s="58"/>
+      <c r="R166" s="61"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
-      <c r="B167" s="68"/>
-      <c r="C167" s="66"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="60"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7186,13 +7203,13 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="68"/>
-      <c r="R167" s="70"/>
+      <c r="Q167" s="58"/>
+      <c r="R167" s="61"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
-      <c r="B168" s="68"/>
-      <c r="C168" s="66"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="60"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7221,13 +7238,13 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="68"/>
-      <c r="R168" s="70"/>
+      <c r="Q168" s="58"/>
+      <c r="R168" s="61"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
-      <c r="B169" s="69"/>
-      <c r="C169" s="66"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="60"/>
       <c r="D169" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7256,13 +7273,13 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="69"/>
-      <c r="R169" s="70"/>
+      <c r="Q169" s="59"/>
+      <c r="R169" s="61"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="66"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="60"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7291,13 +7308,13 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="67"/>
-      <c r="R170" s="70"/>
+      <c r="Q170" s="57"/>
+      <c r="R170" s="61"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="68"/>
-      <c r="C171" s="66"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="60"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7326,13 +7343,13 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="68"/>
-      <c r="R171" s="70"/>
+      <c r="Q171" s="58"/>
+      <c r="R171" s="61"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
-      <c r="B172" s="68"/>
-      <c r="C172" s="66"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="60"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7361,13 +7378,13 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="68"/>
-      <c r="R172" s="70"/>
+      <c r="Q172" s="58"/>
+      <c r="R172" s="61"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
-      <c r="B173" s="68"/>
-      <c r="C173" s="66"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="60"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7396,13 +7413,13 @@
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="68"/>
-      <c r="R173" s="70"/>
+      <c r="Q173" s="58"/>
+      <c r="R173" s="61"/>
     </row>
     <row r="174" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="66"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="60"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7431,13 +7448,13 @@
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="68"/>
-      <c r="R174" s="70"/>
+      <c r="Q174" s="58"/>
+      <c r="R174" s="61"/>
     </row>
     <row r="175" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
-      <c r="B175" s="68"/>
-      <c r="C175" s="66"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="60"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7466,13 +7483,13 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="68"/>
-      <c r="R175" s="70"/>
+      <c r="Q175" s="58"/>
+      <c r="R175" s="61"/>
     </row>
     <row r="176" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
-      <c r="B176" s="68"/>
-      <c r="C176" s="66"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="60"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7501,13 +7518,13 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="68"/>
-      <c r="R176" s="70"/>
+      <c r="Q176" s="58"/>
+      <c r="R176" s="61"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
-      <c r="B177" s="68"/>
-      <c r="C177" s="66"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="60"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7536,13 +7553,13 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="68"/>
-      <c r="R177" s="70"/>
+      <c r="Q177" s="58"/>
+      <c r="R177" s="61"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
-      <c r="B178" s="68"/>
-      <c r="C178" s="66"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="60"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7571,13 +7588,13 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="68"/>
-      <c r="R178" s="70"/>
+      <c r="Q178" s="58"/>
+      <c r="R178" s="61"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
-      <c r="B179" s="68"/>
-      <c r="C179" s="66"/>
+      <c r="B179" s="58"/>
+      <c r="C179" s="60"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7606,13 +7623,13 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="68"/>
-      <c r="R179" s="70"/>
+      <c r="Q179" s="58"/>
+      <c r="R179" s="61"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
-      <c r="B180" s="68"/>
-      <c r="C180" s="66"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="60"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7641,13 +7658,13 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="68"/>
-      <c r="R180" s="70"/>
+      <c r="Q180" s="58"/>
+      <c r="R180" s="61"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
-      <c r="B181" s="68"/>
-      <c r="C181" s="66"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="60"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7676,13 +7693,13 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="68"/>
-      <c r="R181" s="70"/>
+      <c r="Q181" s="58"/>
+      <c r="R181" s="61"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
-      <c r="B182" s="68"/>
-      <c r="C182" s="66"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="60"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7711,13 +7728,13 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="68"/>
-      <c r="R182" s="70"/>
+      <c r="Q182" s="58"/>
+      <c r="R182" s="61"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
-      <c r="B183" s="68"/>
-      <c r="C183" s="66"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="60"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7746,13 +7763,13 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="68"/>
-      <c r="R183" s="70"/>
+      <c r="Q183" s="58"/>
+      <c r="R183" s="61"/>
     </row>
     <row r="184" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
-      <c r="B184" s="69"/>
-      <c r="C184" s="66"/>
+      <c r="B184" s="59"/>
+      <c r="C184" s="60"/>
       <c r="D184" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7781,13 +7798,13 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="69"/>
-      <c r="R184" s="70"/>
+      <c r="Q184" s="59"/>
+      <c r="R184" s="61"/>
     </row>
     <row r="185" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
-      <c r="B185" s="67"/>
-      <c r="C185" s="66"/>
+      <c r="B185" s="57"/>
+      <c r="C185" s="60"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7816,13 +7833,13 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="67"/>
-      <c r="R185" s="70"/>
+      <c r="Q185" s="57"/>
+      <c r="R185" s="61"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
-      <c r="B186" s="68"/>
-      <c r="C186" s="66"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="60"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7851,13 +7868,13 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="68"/>
-      <c r="R186" s="70"/>
+      <c r="Q186" s="58"/>
+      <c r="R186" s="61"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
-      <c r="B187" s="68"/>
-      <c r="C187" s="66"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="60"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7886,13 +7903,13 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="68"/>
-      <c r="R187" s="70"/>
+      <c r="Q187" s="58"/>
+      <c r="R187" s="61"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
-      <c r="B188" s="68"/>
-      <c r="C188" s="66"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="60"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7921,13 +7938,13 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="68"/>
-      <c r="R188" s="70"/>
+      <c r="Q188" s="58"/>
+      <c r="R188" s="61"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
-      <c r="B189" s="68"/>
-      <c r="C189" s="66"/>
+      <c r="B189" s="58"/>
+      <c r="C189" s="60"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7956,13 +7973,13 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="68"/>
-      <c r="R189" s="70"/>
+      <c r="Q189" s="58"/>
+      <c r="R189" s="61"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="66"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="60"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7991,13 +8008,13 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="68"/>
-      <c r="R190" s="70"/>
+      <c r="Q190" s="58"/>
+      <c r="R190" s="61"/>
     </row>
     <row r="191" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="66"/>
+      <c r="B191" s="58"/>
+      <c r="C191" s="60"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8026,13 +8043,13 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="68"/>
-      <c r="R191" s="70"/>
+      <c r="Q191" s="58"/>
+      <c r="R191" s="61"/>
     </row>
     <row r="192" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
-      <c r="B192" s="68"/>
-      <c r="C192" s="66"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="60"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8061,13 +8078,13 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="68"/>
-      <c r="R192" s="70"/>
+      <c r="Q192" s="58"/>
+      <c r="R192" s="61"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
-      <c r="B193" s="68"/>
-      <c r="C193" s="66"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="60"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8096,13 +8113,13 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="68"/>
-      <c r="R193" s="70"/>
+      <c r="Q193" s="58"/>
+      <c r="R193" s="61"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
-      <c r="B194" s="68"/>
-      <c r="C194" s="66"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="60"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8130,13 +8147,13 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="68"/>
-      <c r="R194" s="70"/>
+      <c r="Q194" s="58"/>
+      <c r="R194" s="61"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
-      <c r="B195" s="68"/>
-      <c r="C195" s="66"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="60"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8165,13 +8182,13 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="68"/>
-      <c r="R195" s="70"/>
+      <c r="Q195" s="58"/>
+      <c r="R195" s="61"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
-      <c r="B196" s="68"/>
-      <c r="C196" s="66"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="60"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8200,13 +8217,13 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="68"/>
-      <c r="R196" s="70"/>
+      <c r="Q196" s="58"/>
+      <c r="R196" s="61"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
-      <c r="B197" s="68"/>
-      <c r="C197" s="66"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="60"/>
       <c r="D197" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8235,13 +8252,13 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="68"/>
-      <c r="R197" s="70"/>
+      <c r="Q197" s="58"/>
+      <c r="R197" s="61"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
-      <c r="B198" s="68"/>
-      <c r="C198" s="66"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="60"/>
       <c r="D198" s="4" t="str">
         <f t="shared" ref="D198:D261" si="12">IF(LEN(E198)&gt;5,IF(LEN(K198&amp;L198&amp;M198)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8270,13 +8287,13 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="68"/>
-      <c r="R198" s="70"/>
+      <c r="Q198" s="58"/>
+      <c r="R198" s="61"/>
     </row>
     <row r="199" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
-      <c r="B199" s="69"/>
-      <c r="C199" s="66"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="60"/>
       <c r="D199" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8305,13 +8322,13 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="69"/>
-      <c r="R199" s="70"/>
+      <c r="Q199" s="59"/>
+      <c r="R199" s="61"/>
     </row>
     <row r="200" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
-      <c r="B200" s="67"/>
-      <c r="C200" s="66"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="60"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8340,13 +8357,13 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="67"/>
-      <c r="R200" s="70"/>
+      <c r="Q200" s="57"/>
+      <c r="R200" s="61"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
-      <c r="B201" s="68"/>
-      <c r="C201" s="66"/>
+      <c r="B201" s="58"/>
+      <c r="C201" s="60"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8375,13 +8392,13 @@
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="68"/>
-      <c r="R201" s="70"/>
+      <c r="Q201" s="58"/>
+      <c r="R201" s="61"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="68"/>
-      <c r="C202" s="66"/>
+      <c r="B202" s="58"/>
+      <c r="C202" s="60"/>
       <c r="D202" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8410,13 +8427,13 @@
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="68"/>
-      <c r="R202" s="70"/>
+      <c r="Q202" s="58"/>
+      <c r="R202" s="61"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
-      <c r="B203" s="68"/>
-      <c r="C203" s="66"/>
+      <c r="B203" s="58"/>
+      <c r="C203" s="60"/>
       <c r="D203" s="32" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8445,13 +8462,13 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="68"/>
-      <c r="R203" s="70"/>
+      <c r="Q203" s="58"/>
+      <c r="R203" s="61"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
-      <c r="B204" s="68"/>
-      <c r="C204" s="66"/>
+      <c r="B204" s="58"/>
+      <c r="C204" s="60"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8480,13 +8497,13 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="68"/>
-      <c r="R204" s="70"/>
+      <c r="Q204" s="58"/>
+      <c r="R204" s="61"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
-      <c r="B205" s="68"/>
-      <c r="C205" s="66"/>
+      <c r="B205" s="58"/>
+      <c r="C205" s="60"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8515,13 +8532,13 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="68"/>
-      <c r="R205" s="70"/>
+      <c r="Q205" s="58"/>
+      <c r="R205" s="61"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
-      <c r="B206" s="68"/>
-      <c r="C206" s="66"/>
+      <c r="B206" s="58"/>
+      <c r="C206" s="60"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8550,13 +8567,13 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="68"/>
-      <c r="R206" s="70"/>
+      <c r="Q206" s="58"/>
+      <c r="R206" s="61"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
-      <c r="B207" s="68"/>
-      <c r="C207" s="66"/>
+      <c r="B207" s="58"/>
+      <c r="C207" s="60"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8585,13 +8602,13 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="68"/>
-      <c r="R207" s="70"/>
+      <c r="Q207" s="58"/>
+      <c r="R207" s="61"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
-      <c r="B208" s="68"/>
-      <c r="C208" s="66"/>
+      <c r="B208" s="58"/>
+      <c r="C208" s="60"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8620,13 +8637,13 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="68"/>
-      <c r="R208" s="70"/>
+      <c r="Q208" s="58"/>
+      <c r="R208" s="61"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
-      <c r="B209" s="68"/>
-      <c r="C209" s="66"/>
+      <c r="B209" s="58"/>
+      <c r="C209" s="60"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8655,13 +8672,13 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="68"/>
-      <c r="R209" s="70"/>
+      <c r="Q209" s="58"/>
+      <c r="R209" s="61"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
-      <c r="B210" s="68"/>
-      <c r="C210" s="66"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="60"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8690,13 +8707,13 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="68"/>
-      <c r="R210" s="70"/>
+      <c r="Q210" s="58"/>
+      <c r="R210" s="61"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
-      <c r="B211" s="68"/>
-      <c r="C211" s="66"/>
+      <c r="B211" s="58"/>
+      <c r="C211" s="60"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8725,13 +8742,13 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="68"/>
-      <c r="R211" s="70"/>
+      <c r="Q211" s="58"/>
+      <c r="R211" s="61"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
-      <c r="B212" s="68"/>
-      <c r="C212" s="66"/>
+      <c r="B212" s="58"/>
+      <c r="C212" s="60"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8760,13 +8777,13 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="68"/>
-      <c r="R212" s="70"/>
+      <c r="Q212" s="58"/>
+      <c r="R212" s="61"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="68"/>
-      <c r="C213" s="66"/>
+      <c r="B213" s="58"/>
+      <c r="C213" s="60"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8795,13 +8812,13 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="68"/>
-      <c r="R213" s="70"/>
+      <c r="Q213" s="58"/>
+      <c r="R213" s="61"/>
     </row>
     <row r="214" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
-      <c r="B214" s="69"/>
-      <c r="C214" s="66"/>
+      <c r="B214" s="59"/>
+      <c r="C214" s="60"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8830,13 +8847,13 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="69"/>
-      <c r="R214" s="70"/>
+      <c r="Q214" s="59"/>
+      <c r="R214" s="61"/>
     </row>
     <row r="215" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
-      <c r="B215" s="67"/>
-      <c r="C215" s="66"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="60"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8865,13 +8882,13 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="67"/>
-      <c r="R215" s="70"/>
+      <c r="Q215" s="57"/>
+      <c r="R215" s="61"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
-      <c r="B216" s="68"/>
-      <c r="C216" s="66"/>
+      <c r="B216" s="58"/>
+      <c r="C216" s="60"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8900,13 +8917,13 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="68"/>
-      <c r="R216" s="70"/>
+      <c r="Q216" s="58"/>
+      <c r="R216" s="61"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
-      <c r="B217" s="68"/>
-      <c r="C217" s="66"/>
+      <c r="B217" s="58"/>
+      <c r="C217" s="60"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8935,13 +8952,13 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="68"/>
-      <c r="R217" s="70"/>
+      <c r="Q217" s="58"/>
+      <c r="R217" s="61"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="68"/>
-      <c r="C218" s="66"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="60"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8970,13 +8987,13 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="68"/>
-      <c r="R218" s="70"/>
+      <c r="Q218" s="58"/>
+      <c r="R218" s="61"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
-      <c r="B219" s="68"/>
-      <c r="C219" s="66"/>
+      <c r="B219" s="58"/>
+      <c r="C219" s="60"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9005,13 +9022,13 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="68"/>
-      <c r="R219" s="70"/>
+      <c r="Q219" s="58"/>
+      <c r="R219" s="61"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
-      <c r="B220" s="68"/>
-      <c r="C220" s="66"/>
+      <c r="B220" s="58"/>
+      <c r="C220" s="60"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9040,13 +9057,13 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="68"/>
-      <c r="R220" s="70"/>
+      <c r="Q220" s="58"/>
+      <c r="R220" s="61"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="68"/>
-      <c r="C221" s="66"/>
+      <c r="B221" s="58"/>
+      <c r="C221" s="60"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9075,13 +9092,13 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="68"/>
-      <c r="R221" s="70"/>
+      <c r="Q221" s="58"/>
+      <c r="R221" s="61"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
-      <c r="B222" s="68"/>
-      <c r="C222" s="66"/>
+      <c r="B222" s="58"/>
+      <c r="C222" s="60"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9110,13 +9127,13 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="68"/>
-      <c r="R222" s="70"/>
+      <c r="Q222" s="58"/>
+      <c r="R222" s="61"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
-      <c r="B223" s="68"/>
-      <c r="C223" s="66"/>
+      <c r="B223" s="58"/>
+      <c r="C223" s="60"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9145,13 +9162,13 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="68"/>
-      <c r="R223" s="70"/>
+      <c r="Q223" s="58"/>
+      <c r="R223" s="61"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
-      <c r="B224" s="68"/>
-      <c r="C224" s="66"/>
+      <c r="B224" s="58"/>
+      <c r="C224" s="60"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9180,13 +9197,13 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="68"/>
-      <c r="R224" s="70"/>
+      <c r="Q224" s="58"/>
+      <c r="R224" s="61"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
-      <c r="B225" s="68"/>
-      <c r="C225" s="66"/>
+      <c r="B225" s="58"/>
+      <c r="C225" s="60"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9215,13 +9232,13 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="68"/>
-      <c r="R225" s="70"/>
+      <c r="Q225" s="58"/>
+      <c r="R225" s="61"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
-      <c r="B226" s="68"/>
-      <c r="C226" s="66"/>
+      <c r="B226" s="58"/>
+      <c r="C226" s="60"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9250,13 +9267,13 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="68"/>
-      <c r="R226" s="70"/>
+      <c r="Q226" s="58"/>
+      <c r="R226" s="61"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
-      <c r="B227" s="68"/>
-      <c r="C227" s="66"/>
+      <c r="B227" s="58"/>
+      <c r="C227" s="60"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9285,13 +9302,13 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="68"/>
-      <c r="R227" s="70"/>
+      <c r="Q227" s="58"/>
+      <c r="R227" s="61"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
-      <c r="B228" s="68"/>
-      <c r="C228" s="66"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="60"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9320,13 +9337,13 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="68"/>
-      <c r="R228" s="70"/>
+      <c r="Q228" s="58"/>
+      <c r="R228" s="61"/>
     </row>
     <row r="229" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
-      <c r="B229" s="69"/>
-      <c r="C229" s="66"/>
+      <c r="B229" s="59"/>
+      <c r="C229" s="60"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9355,13 +9372,13 @@
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
-      <c r="Q229" s="69"/>
-      <c r="R229" s="70"/>
+      <c r="Q229" s="59"/>
+      <c r="R229" s="61"/>
     </row>
     <row r="230" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
-      <c r="B230" s="67"/>
-      <c r="C230" s="66"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="60"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9390,13 +9407,13 @@
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
       <c r="P230" s="40"/>
-      <c r="Q230" s="67"/>
-      <c r="R230" s="70"/>
+      <c r="Q230" s="57"/>
+      <c r="R230" s="61"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="14"/>
-      <c r="B231" s="68"/>
-      <c r="C231" s="66"/>
+      <c r="B231" s="58"/>
+      <c r="C231" s="60"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9425,13 +9442,13 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="40"/>
-      <c r="Q231" s="68"/>
-      <c r="R231" s="70"/>
+      <c r="Q231" s="58"/>
+      <c r="R231" s="61"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
-      <c r="B232" s="68"/>
-      <c r="C232" s="66"/>
+      <c r="B232" s="58"/>
+      <c r="C232" s="60"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9460,13 +9477,13 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="68"/>
-      <c r="R232" s="70"/>
+      <c r="Q232" s="58"/>
+      <c r="R232" s="61"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
-      <c r="B233" s="68"/>
-      <c r="C233" s="66"/>
+      <c r="B233" s="58"/>
+      <c r="C233" s="60"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9495,13 +9512,13 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="68"/>
-      <c r="R233" s="70"/>
+      <c r="Q233" s="58"/>
+      <c r="R233" s="61"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
-      <c r="B234" s="68"/>
-      <c r="C234" s="66"/>
+      <c r="B234" s="58"/>
+      <c r="C234" s="60"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9530,13 +9547,13 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="68"/>
-      <c r="R234" s="70"/>
+      <c r="Q234" s="58"/>
+      <c r="R234" s="61"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
-      <c r="B235" s="68"/>
-      <c r="C235" s="66"/>
+      <c r="B235" s="58"/>
+      <c r="C235" s="60"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9565,13 +9582,13 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="68"/>
-      <c r="R235" s="70"/>
+      <c r="Q235" s="58"/>
+      <c r="R235" s="61"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
-      <c r="B236" s="68"/>
-      <c r="C236" s="66"/>
+      <c r="B236" s="58"/>
+      <c r="C236" s="60"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9600,13 +9617,13 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="68"/>
-      <c r="R236" s="70"/>
+      <c r="Q236" s="58"/>
+      <c r="R236" s="61"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
-      <c r="B237" s="68"/>
-      <c r="C237" s="66"/>
+      <c r="B237" s="58"/>
+      <c r="C237" s="60"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9635,13 +9652,13 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="68"/>
-      <c r="R237" s="70"/>
+      <c r="Q237" s="58"/>
+      <c r="R237" s="61"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="14"/>
-      <c r="B238" s="68"/>
-      <c r="C238" s="66"/>
+      <c r="B238" s="58"/>
+      <c r="C238" s="60"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9670,13 +9687,13 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="68"/>
-      <c r="R238" s="70"/>
+      <c r="Q238" s="58"/>
+      <c r="R238" s="61"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="14"/>
-      <c r="B239" s="68"/>
-      <c r="C239" s="66"/>
+      <c r="B239" s="58"/>
+      <c r="C239" s="60"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9705,13 +9722,13 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="68"/>
-      <c r="R239" s="70"/>
+      <c r="Q239" s="58"/>
+      <c r="R239" s="61"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
-      <c r="B240" s="68"/>
-      <c r="C240" s="66"/>
+      <c r="B240" s="58"/>
+      <c r="C240" s="60"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9740,13 +9757,13 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="68"/>
-      <c r="R240" s="70"/>
+      <c r="Q240" s="58"/>
+      <c r="R240" s="61"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
-      <c r="B241" s="68"/>
-      <c r="C241" s="66"/>
+      <c r="B241" s="58"/>
+      <c r="C241" s="60"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9775,13 +9792,13 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="68"/>
-      <c r="R241" s="70"/>
+      <c r="Q241" s="58"/>
+      <c r="R241" s="61"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
-      <c r="B242" s="68"/>
-      <c r="C242" s="66"/>
+      <c r="B242" s="58"/>
+      <c r="C242" s="60"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9810,13 +9827,13 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="68"/>
-      <c r="R242" s="70"/>
+      <c r="Q242" s="58"/>
+      <c r="R242" s="61"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
-      <c r="B243" s="68"/>
-      <c r="C243" s="66"/>
+      <c r="B243" s="58"/>
+      <c r="C243" s="60"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9845,13 +9862,13 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="68"/>
-      <c r="R243" s="70"/>
+      <c r="Q243" s="58"/>
+      <c r="R243" s="61"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
-      <c r="B244" s="69"/>
-      <c r="C244" s="66"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="60"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9880,13 +9897,13 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="69"/>
-      <c r="R244" s="70"/>
+      <c r="Q244" s="59"/>
+      <c r="R244" s="61"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="67"/>
-      <c r="C245" s="66"/>
+      <c r="B245" s="57"/>
+      <c r="C245" s="60"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9915,13 +9932,13 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="67"/>
-      <c r="R245" s="70"/>
+      <c r="Q245" s="57"/>
+      <c r="R245" s="61"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
-      <c r="B246" s="68"/>
-      <c r="C246" s="66"/>
+      <c r="B246" s="58"/>
+      <c r="C246" s="60"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9950,13 +9967,13 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="68"/>
-      <c r="R246" s="70"/>
+      <c r="Q246" s="58"/>
+      <c r="R246" s="61"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
-      <c r="B247" s="68"/>
-      <c r="C247" s="66"/>
+      <c r="B247" s="58"/>
+      <c r="C247" s="60"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9985,13 +10002,13 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="68"/>
-      <c r="R247" s="70"/>
+      <c r="Q247" s="58"/>
+      <c r="R247" s="61"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
-      <c r="B248" s="68"/>
-      <c r="C248" s="66"/>
+      <c r="B248" s="58"/>
+      <c r="C248" s="60"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10020,13 +10037,13 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="68"/>
-      <c r="R248" s="70"/>
+      <c r="Q248" s="58"/>
+      <c r="R248" s="61"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
-      <c r="B249" s="68"/>
-      <c r="C249" s="66"/>
+      <c r="B249" s="58"/>
+      <c r="C249" s="60"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10055,13 +10072,13 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="68"/>
-      <c r="R249" s="70"/>
+      <c r="Q249" s="58"/>
+      <c r="R249" s="61"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
-      <c r="B250" s="68"/>
-      <c r="C250" s="66"/>
+      <c r="B250" s="58"/>
+      <c r="C250" s="60"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10090,13 +10107,13 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="68"/>
-      <c r="R250" s="70"/>
+      <c r="Q250" s="58"/>
+      <c r="R250" s="61"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
-      <c r="B251" s="68"/>
-      <c r="C251" s="66"/>
+      <c r="B251" s="58"/>
+      <c r="C251" s="60"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10125,13 +10142,13 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="68"/>
-      <c r="R251" s="70"/>
+      <c r="Q251" s="58"/>
+      <c r="R251" s="61"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
-      <c r="B252" s="68"/>
-      <c r="C252" s="66"/>
+      <c r="B252" s="58"/>
+      <c r="C252" s="60"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10160,13 +10177,13 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="68"/>
-      <c r="R252" s="70"/>
+      <c r="Q252" s="58"/>
+      <c r="R252" s="61"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
-      <c r="B253" s="68"/>
-      <c r="C253" s="66"/>
+      <c r="B253" s="58"/>
+      <c r="C253" s="60"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10195,13 +10212,13 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="68"/>
-      <c r="R253" s="70"/>
+      <c r="Q253" s="58"/>
+      <c r="R253" s="61"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
-      <c r="B254" s="68"/>
-      <c r="C254" s="66"/>
+      <c r="B254" s="58"/>
+      <c r="C254" s="60"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10230,13 +10247,13 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="68"/>
-      <c r="R254" s="70"/>
+      <c r="Q254" s="58"/>
+      <c r="R254" s="61"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="68"/>
-      <c r="C255" s="66"/>
+      <c r="B255" s="58"/>
+      <c r="C255" s="60"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10265,13 +10282,13 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="68"/>
-      <c r="R255" s="70"/>
+      <c r="Q255" s="58"/>
+      <c r="R255" s="61"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="68"/>
-      <c r="C256" s="66"/>
+      <c r="B256" s="58"/>
+      <c r="C256" s="60"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10300,13 +10317,13 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="70"/>
+      <c r="Q256" s="58"/>
+      <c r="R256" s="61"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="68"/>
-      <c r="C257" s="66"/>
+      <c r="B257" s="58"/>
+      <c r="C257" s="60"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10335,13 +10352,13 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="68"/>
-      <c r="R257" s="70"/>
+      <c r="Q257" s="58"/>
+      <c r="R257" s="61"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
-      <c r="B258" s="68"/>
-      <c r="C258" s="66"/>
+      <c r="B258" s="58"/>
+      <c r="C258" s="60"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10370,13 +10387,13 @@
       <c r="N258" s="10"/>
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
-      <c r="Q258" s="68"/>
-      <c r="R258" s="70"/>
+      <c r="Q258" s="58"/>
+      <c r="R258" s="61"/>
     </row>
     <row r="259" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
-      <c r="B259" s="69"/>
-      <c r="C259" s="66"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="60"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10405,13 +10422,13 @@
       <c r="N259" s="45"/>
       <c r="O259" s="45"/>
       <c r="P259" s="45"/>
-      <c r="Q259" s="69"/>
-      <c r="R259" s="70"/>
+      <c r="Q259" s="59"/>
+      <c r="R259" s="61"/>
     </row>
     <row r="260" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
-      <c r="B260" s="67"/>
-      <c r="C260" s="66"/>
+      <c r="B260" s="57"/>
+      <c r="C260" s="60"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10440,13 +10457,13 @@
       <c r="N260" s="45"/>
       <c r="O260" s="45"/>
       <c r="P260" s="45"/>
-      <c r="Q260" s="67"/>
-      <c r="R260" s="70"/>
+      <c r="Q260" s="57"/>
+      <c r="R260" s="61"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
-      <c r="B261" s="68"/>
-      <c r="C261" s="66"/>
+      <c r="B261" s="58"/>
+      <c r="C261" s="60"/>
       <c r="D261" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10475,13 +10492,13 @@
       <c r="N261" s="45"/>
       <c r="O261" s="45"/>
       <c r="P261" s="45"/>
-      <c r="Q261" s="68"/>
-      <c r="R261" s="70"/>
+      <c r="Q261" s="58"/>
+      <c r="R261" s="61"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
-      <c r="B262" s="68"/>
-      <c r="C262" s="66"/>
+      <c r="B262" s="58"/>
+      <c r="C262" s="60"/>
       <c r="D262" s="4" t="str">
         <f t="shared" ref="D262:D274" si="16">IF(LEN(E262)&gt;5,IF(LEN(K262&amp;L262&amp;M262)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10510,13 +10527,13 @@
       <c r="N262" s="45"/>
       <c r="O262" s="45"/>
       <c r="P262" s="45"/>
-      <c r="Q262" s="68"/>
-      <c r="R262" s="70"/>
+      <c r="Q262" s="58"/>
+      <c r="R262" s="61"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
-      <c r="B263" s="68"/>
-      <c r="C263" s="66"/>
+      <c r="B263" s="58"/>
+      <c r="C263" s="60"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10545,13 +10562,13 @@
       <c r="N263" s="45"/>
       <c r="O263" s="45"/>
       <c r="P263" s="45"/>
-      <c r="Q263" s="68"/>
-      <c r="R263" s="70"/>
+      <c r="Q263" s="58"/>
+      <c r="R263" s="61"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
-      <c r="B264" s="68"/>
-      <c r="C264" s="66"/>
+      <c r="B264" s="58"/>
+      <c r="C264" s="60"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10580,13 +10597,13 @@
       <c r="N264" s="45"/>
       <c r="O264" s="45"/>
       <c r="P264" s="45"/>
-      <c r="Q264" s="68"/>
-      <c r="R264" s="70"/>
+      <c r="Q264" s="58"/>
+      <c r="R264" s="61"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
-      <c r="B265" s="68"/>
-      <c r="C265" s="66"/>
+      <c r="B265" s="58"/>
+      <c r="C265" s="60"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10615,13 +10632,13 @@
       <c r="N265" s="45"/>
       <c r="O265" s="45"/>
       <c r="P265" s="45"/>
-      <c r="Q265" s="68"/>
-      <c r="R265" s="70"/>
+      <c r="Q265" s="58"/>
+      <c r="R265" s="61"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
-      <c r="B266" s="68"/>
-      <c r="C266" s="66"/>
+      <c r="B266" s="58"/>
+      <c r="C266" s="60"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10650,13 +10667,13 @@
       <c r="N266" s="45"/>
       <c r="O266" s="45"/>
       <c r="P266" s="45"/>
-      <c r="Q266" s="68"/>
-      <c r="R266" s="70"/>
+      <c r="Q266" s="58"/>
+      <c r="R266" s="61"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
-      <c r="B267" s="68"/>
-      <c r="C267" s="66"/>
+      <c r="B267" s="58"/>
+      <c r="C267" s="60"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10684,13 +10701,13 @@
       </c>
       <c r="N267" s="45"/>
       <c r="P267" s="45"/>
-      <c r="Q267" s="68"/>
-      <c r="R267" s="70"/>
+      <c r="Q267" s="58"/>
+      <c r="R267" s="61"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
-      <c r="B268" s="68"/>
-      <c r="C268" s="66"/>
+      <c r="B268" s="58"/>
+      <c r="C268" s="60"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10719,13 +10736,13 @@
       <c r="N268" s="45"/>
       <c r="O268" s="45"/>
       <c r="P268" s="45"/>
-      <c r="Q268" s="68"/>
-      <c r="R268" s="70"/>
+      <c r="Q268" s="58"/>
+      <c r="R268" s="61"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
-      <c r="B269" s="68"/>
-      <c r="C269" s="66"/>
+      <c r="B269" s="58"/>
+      <c r="C269" s="60"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10754,13 +10771,13 @@
       <c r="N269" s="45"/>
       <c r="O269" s="45"/>
       <c r="P269" s="45"/>
-      <c r="Q269" s="68"/>
-      <c r="R269" s="70"/>
+      <c r="Q269" s="58"/>
+      <c r="R269" s="61"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
-      <c r="B270" s="68"/>
-      <c r="C270" s="66"/>
+      <c r="B270" s="58"/>
+      <c r="C270" s="60"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10789,13 +10806,13 @@
       <c r="N270" s="45"/>
       <c r="O270" s="45"/>
       <c r="P270" s="45"/>
-      <c r="Q270" s="68"/>
-      <c r="R270" s="70"/>
+      <c r="Q270" s="58"/>
+      <c r="R270" s="61"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
-      <c r="B271" s="68"/>
-      <c r="C271" s="66"/>
+      <c r="B271" s="58"/>
+      <c r="C271" s="60"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10824,13 +10841,13 @@
       <c r="N271" s="45"/>
       <c r="O271" s="45"/>
       <c r="P271" s="45"/>
-      <c r="Q271" s="68"/>
-      <c r="R271" s="70"/>
+      <c r="Q271" s="58"/>
+      <c r="R271" s="61"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
-      <c r="B272" s="68"/>
-      <c r="C272" s="66"/>
+      <c r="B272" s="58"/>
+      <c r="C272" s="60"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10859,13 +10876,13 @@
       <c r="N272" s="45"/>
       <c r="O272" s="45"/>
       <c r="P272" s="45"/>
-      <c r="Q272" s="68"/>
-      <c r="R272" s="70"/>
+      <c r="Q272" s="58"/>
+      <c r="R272" s="61"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
-      <c r="B273" s="68"/>
-      <c r="C273" s="66"/>
+      <c r="B273" s="58"/>
+      <c r="C273" s="60"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10894,13 +10911,13 @@
       <c r="N273" s="45"/>
       <c r="O273" s="45"/>
       <c r="P273" s="45"/>
-      <c r="Q273" s="68"/>
-      <c r="R273" s="70"/>
+      <c r="Q273" s="58"/>
+      <c r="R273" s="61"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="26"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="66"/>
+      <c r="B274" s="59"/>
+      <c r="C274" s="60"/>
       <c r="D274" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10929,8 +10946,8 @@
       <c r="N274" s="45"/>
       <c r="O274" s="45"/>
       <c r="P274" s="45"/>
-      <c r="Q274" s="69"/>
-      <c r="R274" s="70"/>
+      <c r="Q274" s="59"/>
+      <c r="R274" s="61"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G275" s="51"/>
@@ -10948,7 +10965,7 @@
     </row>
     <row r="276" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B276" s="53"/>
       <c r="C276" s="53"/>
@@ -10990,24 +11007,32 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
-    <mergeCell ref="B245:B259"/>
-    <mergeCell ref="C245:C259"/>
-    <mergeCell ref="Q245:Q259"/>
-    <mergeCell ref="B260:B274"/>
-    <mergeCell ref="C260:C274"/>
-    <mergeCell ref="Q260:Q274"/>
-    <mergeCell ref="B215:B229"/>
-    <mergeCell ref="C215:C229"/>
-    <mergeCell ref="Q215:Q229"/>
-    <mergeCell ref="B230:B244"/>
-    <mergeCell ref="C230:C244"/>
-    <mergeCell ref="Q230:Q244"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="Q185:Q199"/>
-    <mergeCell ref="B200:B214"/>
-    <mergeCell ref="C200:C214"/>
-    <mergeCell ref="Q200:Q214"/>
+    <mergeCell ref="R4:R94"/>
+    <mergeCell ref="A19:A79"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="C19:C34"/>
+    <mergeCell ref="Q19:Q34"/>
+    <mergeCell ref="B35:B49"/>
+    <mergeCell ref="C35:C49"/>
+    <mergeCell ref="Q35:Q49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C64"/>
+    <mergeCell ref="Q50:Q64"/>
+    <mergeCell ref="B65:B79"/>
+    <mergeCell ref="C65:C79"/>
+    <mergeCell ref="Q65:Q79"/>
+    <mergeCell ref="A80:A109"/>
+    <mergeCell ref="B80:B94"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="C80:C94"/>
+    <mergeCell ref="Q80:Q94"/>
+    <mergeCell ref="B95:B109"/>
+    <mergeCell ref="C95:C109"/>
+    <mergeCell ref="Q95:Q109"/>
     <mergeCell ref="R95:R274"/>
     <mergeCell ref="B110:B124"/>
     <mergeCell ref="C110:C124"/>
@@ -11024,106 +11049,98 @@
     <mergeCell ref="B170:B184"/>
     <mergeCell ref="C170:C184"/>
     <mergeCell ref="Q170:Q184"/>
-    <mergeCell ref="C80:C94"/>
-    <mergeCell ref="Q80:Q94"/>
-    <mergeCell ref="B95:B109"/>
-    <mergeCell ref="C95:C109"/>
-    <mergeCell ref="Q95:Q109"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="R4:R94"/>
-    <mergeCell ref="A19:A79"/>
-    <mergeCell ref="B19:B34"/>
-    <mergeCell ref="C19:C34"/>
-    <mergeCell ref="Q19:Q34"/>
-    <mergeCell ref="B35:B49"/>
-    <mergeCell ref="C35:C49"/>
-    <mergeCell ref="Q35:Q49"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="C50:C64"/>
-    <mergeCell ref="Q50:Q64"/>
-    <mergeCell ref="B65:B79"/>
-    <mergeCell ref="C65:C79"/>
-    <mergeCell ref="Q65:Q79"/>
-    <mergeCell ref="A80:A109"/>
-    <mergeCell ref="B80:B94"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="Q185:Q199"/>
+    <mergeCell ref="B200:B214"/>
+    <mergeCell ref="C200:C214"/>
+    <mergeCell ref="Q200:Q214"/>
+    <mergeCell ref="B215:B229"/>
+    <mergeCell ref="C215:C229"/>
+    <mergeCell ref="Q215:Q229"/>
+    <mergeCell ref="B230:B244"/>
+    <mergeCell ref="C230:C244"/>
+    <mergeCell ref="Q230:Q244"/>
+    <mergeCell ref="B245:B259"/>
+    <mergeCell ref="C245:C259"/>
+    <mergeCell ref="Q245:Q259"/>
+    <mergeCell ref="B260:B274"/>
+    <mergeCell ref="C260:C274"/>
+    <mergeCell ref="Q260:Q274"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J277">
-    <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G274 G4:G84">
-    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="G4:G84 G86:G274">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5 H7:H277">
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275:R277">
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
       <formula>R275="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>R275="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R274">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D274">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>G85="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>G85="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11149,30 +11166,34 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E95" r:id="rId1" display="Training data"/>
-    <hyperlink ref="E96" r:id="rId2"/>
-    <hyperlink ref="E83" r:id="rId3" display="PQA SM review"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E19" r:id="rId6"/>
-    <hyperlink ref="E20" r:id="rId7"/>
-    <hyperlink ref="E21" r:id="rId8"/>
-    <hyperlink ref="E52" r:id="rId9"/>
-    <hyperlink ref="E65" r:id="rId10" display="ORG_PEG_MINMET_C16"/>
-    <hyperlink ref="E80" r:id="rId11"/>
-    <hyperlink ref="E81" r:id="rId12"/>
-    <hyperlink ref="E82" r:id="rId13" display="ORG_PEG_MINMET_C16"/>
-    <hyperlink ref="E50" r:id="rId14"/>
-    <hyperlink ref="E51" r:id="rId15"/>
-    <hyperlink ref="E22" r:id="rId16" display="ORG_PEG_MINMET_C16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="E35" r:id="rId18"/>
-    <hyperlink ref="E36" r:id="rId19"/>
-    <hyperlink ref="E38" r:id="rId20" display="ORG_PEG_MINMET_C16"/>
-    <hyperlink ref="E66" r:id="rId21"/>
-    <hyperlink ref="E67" r:id="rId22"/>
+    <hyperlink ref="E96" r:id="rId2" display="GGE200_MLSRVW"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E19" r:id="rId5"/>
+    <hyperlink ref="E20" r:id="rId6"/>
+    <hyperlink ref="E21" r:id="rId7"/>
+    <hyperlink ref="E52" r:id="rId8"/>
+    <hyperlink ref="E65" r:id="rId9" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E80" r:id="rId10"/>
+    <hyperlink ref="E81" r:id="rId11"/>
+    <hyperlink ref="E82" r:id="rId12" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E50" r:id="rId13"/>
+    <hyperlink ref="E51" r:id="rId14"/>
+    <hyperlink ref="E22" r:id="rId15" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E37" r:id="rId16"/>
+    <hyperlink ref="E35" r:id="rId17"/>
+    <hyperlink ref="E36" r:id="rId18"/>
+    <hyperlink ref="E38" r:id="rId19" display="ORG_PEG_MINMET_C16"/>
+    <hyperlink ref="E39" r:id="rId20"/>
+    <hyperlink ref="E67" r:id="rId21"/>
+    <hyperlink ref="E68" r:id="rId22" display="ORG_PEG_PLAN_Approval"/>
+    <hyperlink ref="E66" r:id="rId23"/>
+    <hyperlink ref="E83" r:id="rId24"/>
+    <hyperlink ref="E97" r:id="rId25"/>
+    <hyperlink ref="E98" r:id="rId26" display="ORG_PEG_MINMET_C16"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
